--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref001_トークテーマ一覧取得.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref001_トークテーマ一覧取得.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103954FE-773F-42F9-93EE-47815CC98C93}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/develop/eternal/documents/20.開発/60.API/20.API仕様書/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6885" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -23,9 +27,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(トークテーマ一覧取得)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(トークテーマ一覧取得)'!$A$1:$BV$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">リクエスト!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">レスポンス!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'概要(トークテーマ一覧取得)'!$1:$4</definedName>
@@ -39,12 +43,20 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="109">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -191,19 +203,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・APIを使用する画面を記載する</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>#</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -439,10 +438,6 @@
   </si>
   <si>
     <t>・body</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>・パスパラメータ</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -561,9 +556,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -589,10 +581,6 @@
   </si>
   <si>
     <t>postedDateTime</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ランキング順</t>
@@ -638,10 +626,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -709,13 +693,46 @@
   </si>
   <si>
     <t>・body</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・クエリパラメータ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・以下の画面でAPIを使用する</t>
+    <rPh sb="1" eb="3">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメンデ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>talkThemeId</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>categoryId</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;改訂日 &quot;yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;バージョン &quot;@"/>
@@ -726,14 +743,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -741,14 +758,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -770,7 +787,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -852,16 +869,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,27 +915,27 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,20 +943,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -947,17 +964,17 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -968,7 +985,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1064,54 +1081,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1160,11 +1129,59 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1204,7 +1221,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1229,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="82643" y="120700"/>
+          <a:off x="74705" y="116731"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -1223,7 +1240,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1288,7 +1305,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1353,7 +1370,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1418,7 +1435,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1483,7 +1500,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1548,7 +1565,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1613,7 +1630,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1685,7 +1702,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1757,7 +1774,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1811,7 +1828,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年11月30日</a:t>
+              <a:t>2018年11月30日 金曜日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1829,7 +1846,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1901,7 +1918,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1973,7 +1990,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2066,7 +2083,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2091,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="82643" y="120700"/>
+          <a:off x="74705" y="116731"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -2085,7 +2102,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2150,7 +2167,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2215,7 +2232,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2280,7 +2297,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2345,7 +2362,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2410,7 +2427,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2475,7 +2492,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2547,7 +2564,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2619,7 +2636,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2673,7 +2690,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年11月30日</a:t>
+              <a:t>2018年11月30日 金曜日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2691,7 +2708,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2763,7 +2780,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2835,7 +2852,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2928,7 +2945,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2936,7 +2953,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="82643" y="120700"/>
+          <a:off x="74705" y="116731"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -2947,7 +2964,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3012,7 +3029,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3077,7 +3094,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3142,7 +3159,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3207,7 +3224,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3272,7 +3289,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3337,7 +3354,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3409,7 +3426,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3481,7 +3498,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3535,7 +3552,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年11月30日</a:t>
+              <a:t>2018年11月30日 金曜日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3553,7 +3570,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3625,7 +3642,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3697,7 +3714,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3797,7 +3814,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3842,9 +3859,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3872,31 +3889,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3924,23 +3924,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4116,61 +4099,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.125" style="1"/>
-    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.125" style="1"/>
+    <col min="1" max="1" width="1.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="1"/>
+    <col min="3" max="3" width="3.1640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="24.75" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" ht="26" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="35.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" ht="35" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="str">
         <f ca="1">SUBSTITUTE(MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND("]",CELL("filename",A1))-FIND("[",CELL("filename",A1))-1),".xlsx","")</f>
         <v>【eternal】API仕様書_Ref001_トークテーマ一覧取得</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-    </row>
-    <row r="21" spans="2:51" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+    </row>
+    <row r="21" spans="2:51" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4222,44 +4205,44 @@
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
     </row>
-    <row r="22" spans="2:51" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:51" ht="20" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="AO27" s="30">
+    <row r="27" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AO27" s="46">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
         <v>43434</v>
       </c>
-      <c r="AP27" s="31"/>
-      <c r="AQ27" s="31"/>
-      <c r="AR27" s="31"/>
-      <c r="AS27" s="31"/>
-      <c r="AT27" s="31"/>
-      <c r="AU27" s="31"/>
-      <c r="AV27" s="31"/>
-      <c r="AW27" s="31"/>
-      <c r="AX27" s="31"/>
-      <c r="AY27" s="31"/>
-    </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.15">
-      <c r="AR28" s="32" t="str">
+      <c r="AP27" s="47"/>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="47"/>
+      <c r="AS27" s="47"/>
+      <c r="AT27" s="47"/>
+      <c r="AU27" s="47"/>
+      <c r="AV27" s="47"/>
+      <c r="AW27" s="47"/>
+      <c r="AX27" s="47"/>
+      <c r="AY27" s="47"/>
+    </row>
+    <row r="28" spans="2:51" x14ac:dyDescent="0.25">
+      <c r="AR28" s="48" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
         <v>0.0.1</v>
       </c>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="32"/>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="32"/>
-      <c r="AW28" s="32"/>
-      <c r="AX28" s="32"/>
-      <c r="AY28" s="32"/>
-    </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="AS28" s="48"/>
+      <c r="AT28" s="48"/>
+      <c r="AU28" s="48"/>
+      <c r="AV28" s="48"/>
+      <c r="AW28" s="48"/>
+      <c r="AX28" s="48"/>
+      <c r="AY28" s="48"/>
+    </row>
+    <row r="31" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AR31" s="6"/>
     </row>
-    <row r="35" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AO27:AY27"/>
@@ -4273,31 +4256,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4311,135 +4294,135 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9">
         <v>43434</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="10"/>
       <c r="D6" s="9"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4453,28 +4436,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.125" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.125" style="12"/>
-    <col min="76" max="82" width="8.75" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.125" style="12"/>
+    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
+    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
+    <col min="75" max="75" width="3.1640625" style="12"/>
+    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
+    <col min="83" max="16384" width="3.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
       <c r="BX2" s="13" t="s">
         <v>11</v>
       </c>
@@ -4494,7 +4477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
       <c r="BX3" s="13" t="s">
         <v>16</v>
       </c>
@@ -4511,37 +4494,37 @@
       <c r="CB3" s="14"/>
       <c r="CC3" s="13"/>
     </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C8" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:81" ht="19.5" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:81" ht="20" x14ac:dyDescent="0.35">
       <c r="C11" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="23"/>
       <c r="H11" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
@@ -4570,16 +4553,16 @@
       <c r="AG11" s="28"/>
       <c r="AH11" s="23"/>
     </row>
-    <row r="12" spans="2:81" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="C12" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
+    <row r="12" spans="2:81" ht="20" x14ac:dyDescent="0.35">
+      <c r="C12" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -4608,23 +4591,23 @@
       <c r="AG12" s="16"/>
       <c r="AH12" s="17"/>
     </row>
-    <row r="14" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C16" s="22" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C16" s="22" t="s">
-        <v>20</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -4641,7 +4624,7 @@
       <c r="R16" s="25"/>
       <c r="S16" s="26"/>
       <c r="T16" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
@@ -4658,13 +4641,13 @@
       <c r="AG16" s="25"/>
       <c r="AH16" s="26"/>
     </row>
-    <row r="17" spans="3:34" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C17" s="19">
         <v>1</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
@@ -4681,7 +4664,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="21"/>
       <c r="T17" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
@@ -4698,13 +4681,13 @@
       <c r="AG17" s="20"/>
       <c r="AH17" s="21"/>
     </row>
-    <row r="18" spans="3:34" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C18" s="19">
         <v>2</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
@@ -4721,7 +4704,7 @@
       <c r="R18" s="20"/>
       <c r="S18" s="21"/>
       <c r="T18" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
@@ -4744,7 +4727,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4755,28 +4738,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC7AE70-EEC0-4148-9BA2-8D4B9BF14C07}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.125" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.125" style="12"/>
-    <col min="76" max="82" width="8.75" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.125" style="12"/>
+    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
+    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
+    <col min="75" max="75" width="3.1640625" style="12"/>
+    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
+    <col min="83" max="16384" width="3.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
       <c r="BX2" s="13" t="s">
         <v>11</v>
       </c>
@@ -4796,7 +4779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
       <c r="BX3" s="13" t="s">
         <v>16</v>
       </c>
@@ -4813,30 +4796,30 @@
       <c r="CB3" s="14"/>
       <c r="CC3" s="13"/>
     </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="BX7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CA7" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C8" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -4845,7 +4828,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="23"/>
       <c r="L8" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -4854,7 +4837,7 @@
       <c r="Q8" s="28"/>
       <c r="R8" s="23"/>
       <c r="S8" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
@@ -4863,7 +4846,7 @@
       <c r="X8" s="28"/>
       <c r="Y8" s="23"/>
       <c r="Z8" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA8" s="28"/>
       <c r="AB8" s="28"/>
@@ -4894,373 +4877,373 @@
       <c r="AW8" s="28"/>
       <c r="AX8" s="23"/>
       <c r="BX8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CA8" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C9" s="40">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C9" s="55">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="42"/>
-      <c r="AL9" s="42"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="42"/>
-      <c r="AO9" s="42"/>
-      <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AW9" s="42"/>
-      <c r="AX9" s="42"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="54"/>
+      <c r="AX9" s="54"/>
       <c r="BX9" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="CA9" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C10" s="40">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C10" s="55">
         <f>ROW()-ROW($C$8)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40"/>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="54"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="54"/>
+      <c r="AU10" s="54"/>
+      <c r="AV10" s="54"/>
+      <c r="AW10" s="54"/>
+      <c r="AX10" s="54"/>
       <c r="BX10" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="CA10" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C11" s="40">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C11" s="55">
         <f>ROW()-ROW($C$8)</f>
         <v>3</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40" t="s">
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ11" s="42"/>
-      <c r="AK11" s="42"/>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="42"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="42"/>
-      <c r="AP11" s="42"/>
-      <c r="AQ11" s="42"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="42"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="42"/>
-      <c r="AV11" s="42"/>
-      <c r="AW11" s="42"/>
-      <c r="AX11" s="42"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="54"/>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="54"/>
+      <c r="AR11" s="54"/>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="54"/>
+      <c r="AU11" s="54"/>
+      <c r="AV11" s="54"/>
+      <c r="AW11" s="54"/>
+      <c r="AX11" s="54"/>
       <c r="BX11" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="CA11" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:81" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:81" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="55">
         <f>ROW()-ROW($C$8)</f>
         <v>4</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="54"/>
+      <c r="AP12" s="54"/>
+      <c r="AQ12" s="54"/>
+      <c r="AR12" s="54"/>
+      <c r="AS12" s="54"/>
+      <c r="AT12" s="54"/>
+      <c r="AU12" s="54"/>
+      <c r="AV12" s="54"/>
+      <c r="AW12" s="54"/>
+      <c r="AX12" s="54"/>
       <c r="CA12" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:81" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:81" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="55">
         <f>ROW()-ROW($C$8)</f>
         <v>5</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40"/>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="AJ13" s="42"/>
-      <c r="AK13" s="42"/>
-      <c r="AL13" s="42"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="42"/>
-      <c r="AO13" s="42"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="42"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="54"/>
+      <c r="AW13" s="54"/>
+      <c r="AX13" s="54"/>
       <c r="CA13" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:81" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="2:81" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C16" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28"/>
@@ -5269,7 +5252,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="23"/>
       <c r="L16" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
@@ -5278,7 +5261,7 @@
       <c r="Q16" s="28"/>
       <c r="R16" s="23"/>
       <c r="S16" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T16" s="28"/>
       <c r="U16" s="28"/>
@@ -5287,7 +5270,7 @@
       <c r="X16" s="28"/>
       <c r="Y16" s="23"/>
       <c r="Z16" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA16" s="28"/>
       <c r="AB16" s="28"/>
@@ -5318,67 +5301,79 @@
       <c r="AW16" s="28"/>
       <c r="AX16" s="23"/>
     </row>
-    <row r="17" spans="3:50" x14ac:dyDescent="0.15">
-      <c r="C17" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="42"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="42"/>
-      <c r="AV17" s="42"/>
-      <c r="AW17" s="42"/>
-      <c r="AX17" s="42"/>
+    <row r="17" spans="3:50" x14ac:dyDescent="0.25">
+      <c r="C17" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="Z10:AF10"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AX9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AX13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AF13"/>
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="AI11:AX11"/>
     <mergeCell ref="C17:D17"/>
@@ -5395,29 +5390,17 @@
     <mergeCell ref="Z11:AF11"/>
     <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="AI12:AX12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="Z13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AX13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="Z12:AF12"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AX10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="Z10:AF10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG17:AH17 AG9:AH13" xr:uid="{B11C77B4-8DBD-4E2A-A69B-3145CEC07D64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG17:AH17 AG9:AH13">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5428,28 +5411,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BA1B60-6C26-461A-9198-DED2C2EF8FDC}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC22"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.875" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.125" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.125" style="12"/>
-    <col min="76" max="82" width="8.75" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.125" style="12"/>
+    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
+    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
+    <col min="75" max="75" width="3.1640625" style="12"/>
+    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
+    <col min="83" max="16384" width="3.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
       <c r="BX2" s="13" t="s">
         <v>11</v>
       </c>
@@ -5469,7 +5452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
       <c r="BX3" s="13" t="s">
         <v>16</v>
       </c>
@@ -5486,31 +5469,31 @@
       <c r="CB3" s="14"/>
       <c r="CC3" s="13"/>
     </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="BX7" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CA7" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C8" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="23"/>
       <c r="F8" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -5519,7 +5502,7 @@
       <c r="K8" s="28"/>
       <c r="L8" s="23"/>
       <c r="M8" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
@@ -5528,7 +5511,7 @@
       <c r="R8" s="28"/>
       <c r="S8" s="23"/>
       <c r="T8" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U8" s="28"/>
       <c r="V8" s="28"/>
@@ -5537,7 +5520,7 @@
       <c r="Y8" s="28"/>
       <c r="Z8" s="23"/>
       <c r="AA8" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AB8" s="28"/>
       <c r="AC8" s="28"/>
@@ -5568,928 +5551,990 @@
       <c r="AX8" s="28"/>
       <c r="AY8" s="23"/>
       <c r="BX8" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="CA8" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C9" s="35">
+        <v>1</v>
+      </c>
+      <c r="D9" s="45"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="57"/>
+      <c r="BX9" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C9" s="51">
+      <c r="CA9" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C10" s="36"/>
+      <c r="D10" s="43">
         <v>1</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="39"/>
-      <c r="AU9" s="39"/>
-      <c r="AV9" s="39"/>
-      <c r="AW9" s="39"/>
-      <c r="AX9" s="39"/>
-      <c r="AY9" s="39"/>
-      <c r="BX9" s="12" t="s">
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="57"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="57"/>
+      <c r="AQ10" s="57"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="57"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="57"/>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="57"/>
+      <c r="AX10" s="57"/>
+      <c r="AY10" s="57"/>
+      <c r="BX10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="CA10" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C11" s="36"/>
+      <c r="D11" s="43">
+        <v>2</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="57"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="57"/>
+      <c r="AP11" s="57"/>
+      <c r="AQ11" s="57"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="57"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="57"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="57"/>
+      <c r="BX11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="CA11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="CA9" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C10" s="52"/>
-      <c r="D10" s="59">
+    </row>
+    <row r="12" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C12" s="36"/>
+      <c r="D12" s="43">
+        <v>3</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="57"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="57"/>
+      <c r="AX12" s="57"/>
+      <c r="AY12" s="57"/>
+      <c r="CA12" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C13" s="36"/>
+      <c r="D13" s="43">
+        <v>4</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="57"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="57"/>
+      <c r="AX13" s="57"/>
+      <c r="AY13" s="57"/>
+      <c r="CA13" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C14" s="36"/>
+      <c r="D14" s="43">
+        <v>5</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="57"/>
+      <c r="AY14" s="57"/>
+    </row>
+    <row r="15" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C15" s="36"/>
+      <c r="D15" s="43">
+        <v>6</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="57"/>
+      <c r="AY15" s="57"/>
+    </row>
+    <row r="16" spans="2:81" x14ac:dyDescent="0.25">
+      <c r="C16" s="36"/>
+      <c r="D16" s="43">
+        <v>7</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="57"/>
+      <c r="AV16" s="57"/>
+      <c r="AW16" s="57"/>
+      <c r="AX16" s="57"/>
+      <c r="AY16" s="57"/>
+    </row>
+    <row r="17" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C17" s="36"/>
+      <c r="D17" s="32">
+        <v>8</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="57"/>
+      <c r="AX17" s="57"/>
+      <c r="AY17" s="57"/>
+    </row>
+    <row r="18" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C18" s="44"/>
+      <c r="D18" s="38">
+        <v>9</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="57"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="57"/>
+      <c r="AT18" s="57"/>
+      <c r="AU18" s="57"/>
+      <c r="AV18" s="57"/>
+      <c r="AW18" s="57"/>
+      <c r="AX18" s="57"/>
+      <c r="AY18" s="57"/>
+    </row>
+    <row r="19" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C19" s="34"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="37">
         <v>1</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI10" s="38"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="39"/>
-      <c r="AR10" s="39"/>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="39"/>
-      <c r="AU10" s="39"/>
-      <c r="AV10" s="39"/>
-      <c r="AW10" s="39"/>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="39"/>
-      <c r="BX10" s="12" t="s">
+      <c r="F19" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
+      <c r="AU19" s="57"/>
+      <c r="AV19" s="57"/>
+      <c r="AW19" s="57"/>
+      <c r="AX19" s="57"/>
+      <c r="AY19" s="57"/>
+    </row>
+    <row r="20" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C20" s="34"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="37">
+        <v>2</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="CA10" s="12" t="s">
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C11" s="52"/>
-      <c r="D11" s="59">
-        <v>2</v>
-      </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="39"/>
-      <c r="AR11" s="39"/>
-      <c r="AS11" s="39"/>
-      <c r="AT11" s="39"/>
-      <c r="AU11" s="39"/>
-      <c r="AV11" s="39"/>
-      <c r="AW11" s="39"/>
-      <c r="AX11" s="39"/>
-      <c r="AY11" s="39"/>
-      <c r="BX11" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="CA11" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C12" s="52"/>
-      <c r="D12" s="59">
-        <v>3</v>
-      </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="39"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="39"/>
-      <c r="AU12" s="39"/>
-      <c r="AV12" s="39"/>
-      <c r="AW12" s="39"/>
-      <c r="AX12" s="39"/>
-      <c r="AY12" s="39"/>
-      <c r="CA12" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C13" s="52"/>
-      <c r="D13" s="59">
-        <v>4</v>
-      </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI13" s="38"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="39"/>
-      <c r="AS13" s="39"/>
-      <c r="AT13" s="39"/>
-      <c r="AU13" s="39"/>
-      <c r="AV13" s="39"/>
-      <c r="AW13" s="39"/>
-      <c r="AX13" s="39"/>
-      <c r="AY13" s="39"/>
-      <c r="CA13" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C14" s="52"/>
-      <c r="D14" s="59">
-        <v>5</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="38" t="s">
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="AI14" s="38"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="39"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="39"/>
-      <c r="AS14" s="39"/>
-      <c r="AT14" s="39"/>
-      <c r="AU14" s="39"/>
-      <c r="AV14" s="39"/>
-      <c r="AW14" s="39"/>
-      <c r="AX14" s="39"/>
-      <c r="AY14" s="39"/>
-    </row>
-    <row r="15" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C15" s="52"/>
-      <c r="D15" s="59">
-        <v>6</v>
-      </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="39"/>
-      <c r="AN15" s="39"/>
-      <c r="AO15" s="39"/>
-      <c r="AP15" s="39"/>
-      <c r="AQ15" s="39"/>
-      <c r="AR15" s="39"/>
-      <c r="AS15" s="39"/>
-      <c r="AT15" s="39"/>
-      <c r="AU15" s="39"/>
-      <c r="AV15" s="39"/>
-      <c r="AW15" s="39"/>
-      <c r="AX15" s="39"/>
-      <c r="AY15" s="39"/>
-    </row>
-    <row r="16" spans="2:81" x14ac:dyDescent="0.15">
-      <c r="C16" s="52"/>
-      <c r="D16" s="59">
-        <v>7</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="43" t="s">
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="57"/>
+      <c r="AV20" s="57"/>
+      <c r="AW20" s="57"/>
+      <c r="AX20" s="57"/>
+      <c r="AY20" s="57"/>
+    </row>
+    <row r="21" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C21" s="36"/>
+      <c r="D21" s="30">
+        <v>10</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="F21" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI16" s="38"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
-      <c r="AQ16" s="39"/>
-      <c r="AR16" s="39"/>
-      <c r="AS16" s="39"/>
-      <c r="AT16" s="39"/>
-      <c r="AU16" s="39"/>
-      <c r="AV16" s="39"/>
-      <c r="AW16" s="39"/>
-      <c r="AX16" s="39"/>
-      <c r="AY16" s="39"/>
-    </row>
-    <row r="17" spans="3:51" x14ac:dyDescent="0.15">
-      <c r="C17" s="52"/>
-      <c r="D17" s="48">
-        <v>8</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="43" t="s">
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="57"/>
+      <c r="AK21" s="57"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="57"/>
+      <c r="AN21" s="57"/>
+      <c r="AO21" s="57"/>
+      <c r="AP21" s="57"/>
+      <c r="AQ21" s="57"/>
+      <c r="AR21" s="57"/>
+      <c r="AS21" s="57"/>
+      <c r="AT21" s="57"/>
+      <c r="AU21" s="57"/>
+      <c r="AV21" s="57"/>
+      <c r="AW21" s="57"/>
+      <c r="AX21" s="57"/>
+      <c r="AY21" s="57"/>
+    </row>
+    <row r="22" spans="3:51" x14ac:dyDescent="0.25">
+      <c r="C22" s="15"/>
+      <c r="D22" s="43">
+        <v>11</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="37" t="s">
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI17" s="38"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="39"/>
-    </row>
-    <row r="18" spans="3:51" x14ac:dyDescent="0.15">
-      <c r="C18" s="60"/>
-      <c r="D18" s="54">
-        <v>9</v>
-      </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="38" t="s">
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
-      <c r="AV18" s="39"/>
-      <c r="AW18" s="39"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="39"/>
-    </row>
-    <row r="19" spans="3:51" x14ac:dyDescent="0.15">
-      <c r="C19" s="50"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="53">
-        <v>1</v>
-      </c>
-      <c r="F19" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI19" s="38"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="39"/>
-      <c r="AP19" s="39"/>
-      <c r="AQ19" s="39"/>
-      <c r="AR19" s="39"/>
-      <c r="AS19" s="39"/>
-      <c r="AT19" s="39"/>
-      <c r="AU19" s="39"/>
-      <c r="AV19" s="39"/>
-      <c r="AW19" s="39"/>
-      <c r="AX19" s="39"/>
-      <c r="AY19" s="39"/>
-    </row>
-    <row r="20" spans="3:51" x14ac:dyDescent="0.15">
-      <c r="C20" s="50"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="53">
-        <v>2</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="37" t="s">
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="39"/>
-      <c r="AV20" s="39"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="39"/>
-    </row>
-    <row r="21" spans="3:51" x14ac:dyDescent="0.15">
-      <c r="C21" s="52"/>
-      <c r="D21" s="46">
-        <v>10</v>
-      </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39"/>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="39"/>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="39"/>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="39"/>
-    </row>
-    <row r="22" spans="3:51" x14ac:dyDescent="0.15">
-      <c r="C22" s="15"/>
-      <c r="D22" s="59">
-        <v>11</v>
-      </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI22" s="38"/>
-      <c r="AJ22" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK22" s="39"/>
-      <c r="AL22" s="39"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="39"/>
-      <c r="AP22" s="39"/>
-      <c r="AQ22" s="39"/>
-      <c r="AR22" s="39"/>
-      <c r="AS22" s="39"/>
-      <c r="AT22" s="39"/>
-      <c r="AU22" s="39"/>
-      <c r="AV22" s="39"/>
-      <c r="AW22" s="39"/>
-      <c r="AX22" s="39"/>
-      <c r="AY22" s="39"/>
+      <c r="AK22" s="57"/>
+      <c r="AL22" s="57"/>
+      <c r="AM22" s="57"/>
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="57"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="57"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="57"/>
+      <c r="AT22" s="57"/>
+      <c r="AU22" s="57"/>
+      <c r="AV22" s="57"/>
+      <c r="AW22" s="57"/>
+      <c r="AX22" s="57"/>
+      <c r="AY22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AY9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:Z9"/>
-    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="AJ10:AY10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AJ11:AY11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="T12:Z12"/>
+    <mergeCell ref="AA12:AG12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ12:AY12"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:Z13"/>
+    <mergeCell ref="AA13:AG13"/>
+    <mergeCell ref="AJ13:AY13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="T14:Z14"/>
+    <mergeCell ref="AA14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AY14"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="T15:Z15"/>
+    <mergeCell ref="AA15:AG15"/>
+    <mergeCell ref="AJ15:AY15"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="AA16:AG16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AY16"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="T17:Z17"/>
+    <mergeCell ref="AA17:AG17"/>
+    <mergeCell ref="AJ17:AY17"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AG18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AY18"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="AJ19:AY19"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AG20"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AJ20:AY20"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AG19"/>
+    <mergeCell ref="AH19:AI19"/>
     <mergeCell ref="AJ21:AY21"/>
     <mergeCell ref="M22:S22"/>
     <mergeCell ref="T22:Z22"/>
@@ -6500,78 +6545,16 @@
     <mergeCell ref="T21:Z21"/>
     <mergeCell ref="AA21:AG21"/>
     <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AJ19:AY19"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AG20"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AJ20:AY20"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AG19"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="AJ17:AY17"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AG18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AJ18:AY18"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="T17:Z17"/>
-    <mergeCell ref="AA17:AG17"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="AJ15:AY15"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="AA16:AG16"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AJ16:AY16"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="T15:Z15"/>
-    <mergeCell ref="AA15:AG15"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="AJ13:AY13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="T14:Z14"/>
-    <mergeCell ref="AA14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AY14"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="T13:Z13"/>
-    <mergeCell ref="AA13:AG13"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="AJ11:AY11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="T12:Z12"/>
-    <mergeCell ref="AA12:AG12"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AJ12:AY12"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AJ10:AY10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AY9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:Z9"/>
+    <mergeCell ref="AA9:AG9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AI22" xr:uid="{188E9197-BB40-4EC9-97A2-32CA993B959B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AI22">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref001_トークテーマ一覧取得.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref001_トークテーマ一覧取得.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="111">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -726,6 +726,24 @@
   </si>
   <si>
     <t>categoryId</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0.0.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リクエスト
+・最大取得数を必須に変更</t>
+    <rPh sb="7" eb="12">
+      <t>シュトクサイダイスウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1151,22 +1169,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1176,6 +1188,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1221,7 +1239,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1258,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1305,7 +1323,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1370,7 +1388,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1435,7 +1453,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1500,7 +1518,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1565,7 +1583,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1630,7 +1648,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1702,7 +1720,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1774,7 +1792,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1846,7 +1864,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1918,7 +1936,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1990,7 +2008,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2083,7 +2101,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2120,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2167,7 +2185,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2232,7 +2250,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2297,7 +2315,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2362,7 +2380,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2427,7 +2445,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2492,7 +2510,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2564,7 +2582,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2636,7 +2654,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2708,7 +2726,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2780,7 +2798,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2852,7 +2870,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2945,7 +2963,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,7 +2982,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3029,7 +3047,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3094,7 +3112,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3159,7 +3177,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3224,7 +3242,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3289,7 +3307,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3354,7 +3372,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3426,7 +3444,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3498,7 +3516,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3570,7 +3588,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3642,7 +3660,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3714,7 +3732,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4213,7 +4231,7 @@
     <row r="27" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AO27" s="46">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43434</v>
+        <v>43449</v>
       </c>
       <c r="AP27" s="47"/>
       <c r="AQ27" s="47"/>
@@ -4229,7 +4247,7 @@
     <row r="28" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AR28" s="48" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.1</v>
+        <v>0.0.2</v>
       </c>
       <c r="AS28" s="48"/>
       <c r="AT28" s="48"/>
@@ -4308,11 +4326,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
+    <row r="6" spans="2:5" ht="38" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43449</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
@@ -4884,69 +4910,69 @@
       </c>
     </row>
     <row r="9" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C9" s="55">
+      <c r="C9" s="53">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55" t="s">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55" t="s">
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55" t="s">
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="55" t="s">
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="55"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="55"/>
-      <c r="AE9" s="55"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="53" t="s">
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="54" t="s">
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
-      <c r="AL9" s="54"/>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="54"/>
-      <c r="AQ9" s="54"/>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="54"/>
-      <c r="AV9" s="54"/>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
+      <c r="AJ9" s="55"/>
+      <c r="AK9" s="55"/>
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="55"/>
+      <c r="AO9" s="55"/>
+      <c r="AP9" s="55"/>
+      <c r="AQ9" s="55"/>
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="55"/>
+      <c r="AT9" s="55"/>
+      <c r="AU9" s="55"/>
+      <c r="AV9" s="55"/>
+      <c r="AW9" s="55"/>
+      <c r="AX9" s="55"/>
       <c r="BX9" s="12" t="s">
         <v>32</v>
       </c>
@@ -4955,69 +4981,69 @@
       </c>
     </row>
     <row r="10" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C10" s="55">
+      <c r="C10" s="53">
         <f>ROW()-ROW($C$8)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55" t="s">
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55" t="s">
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55" t="s">
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="55"/>
-      <c r="AE10" s="55"/>
-      <c r="AF10" s="55"/>
-      <c r="AG10" s="53" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="54" t="s">
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
-      <c r="AL10" s="54"/>
-      <c r="AM10" s="54"/>
-      <c r="AN10" s="54"/>
-      <c r="AO10" s="54"/>
-      <c r="AP10" s="54"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="54"/>
-      <c r="AS10" s="54"/>
-      <c r="AT10" s="54"/>
-      <c r="AU10" s="54"/>
-      <c r="AV10" s="54"/>
-      <c r="AW10" s="54"/>
-      <c r="AX10" s="54"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="55"/>
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="55"/>
+      <c r="AR10" s="55"/>
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="55"/>
+      <c r="AU10" s="55"/>
+      <c r="AV10" s="55"/>
+      <c r="AW10" s="55"/>
+      <c r="AX10" s="55"/>
       <c r="BX10" s="12" t="s">
         <v>62</v>
       </c>
@@ -5026,69 +5052,69 @@
       </c>
     </row>
     <row r="11" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C11" s="55">
+      <c r="C11" s="53">
         <f>ROW()-ROW($C$8)</f>
         <v>3</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55" t="s">
+      <c r="D11" s="53"/>
+      <c r="E11" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55" t="s">
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55" t="s">
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55" t="s">
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
-      <c r="AE11" s="55"/>
-      <c r="AF11" s="55"/>
-      <c r="AG11" s="53" t="s">
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54" t="s">
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
-      <c r="AL11" s="54"/>
-      <c r="AM11" s="54"/>
-      <c r="AN11" s="54"/>
-      <c r="AO11" s="54"/>
-      <c r="AP11" s="54"/>
-      <c r="AQ11" s="54"/>
-      <c r="AR11" s="54"/>
-      <c r="AS11" s="54"/>
-      <c r="AT11" s="54"/>
-      <c r="AU11" s="54"/>
-      <c r="AV11" s="54"/>
-      <c r="AW11" s="54"/>
-      <c r="AX11" s="54"/>
+      <c r="AJ11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="55"/>
+      <c r="AO11" s="55"/>
+      <c r="AP11" s="55"/>
+      <c r="AQ11" s="55"/>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="55"/>
+      <c r="AV11" s="55"/>
+      <c r="AW11" s="55"/>
+      <c r="AX11" s="55"/>
       <c r="BX11" s="12" t="s">
         <v>63</v>
       </c>
@@ -5097,137 +5123,137 @@
       </c>
     </row>
     <row r="12" spans="2:81" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="55">
+      <c r="C12" s="53">
         <f>ROW()-ROW($C$8)</f>
         <v>4</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55" t="s">
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55" t="s">
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55" t="s">
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="53" t="s">
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="54" t="s">
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
-      <c r="AL12" s="54"/>
-      <c r="AM12" s="54"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="54"/>
-      <c r="AP12" s="54"/>
-      <c r="AQ12" s="54"/>
-      <c r="AR12" s="54"/>
-      <c r="AS12" s="54"/>
-      <c r="AT12" s="54"/>
-      <c r="AU12" s="54"/>
-      <c r="AV12" s="54"/>
-      <c r="AW12" s="54"/>
-      <c r="AX12" s="54"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="55"/>
+      <c r="AX12" s="55"/>
       <c r="CA12" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:81" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="55">
+      <c r="C13" s="53">
         <f>ROW()-ROW($C$8)</f>
         <v>5</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55" t="s">
+      <c r="D13" s="53"/>
+      <c r="E13" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55" t="s">
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55" t="s">
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="55" t="s">
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="55"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="55"/>
-      <c r="AE13" s="55"/>
-      <c r="AF13" s="55"/>
-      <c r="AG13" s="53" t="s">
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54" t="s">
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="54"/>
-      <c r="AW13" s="54"/>
-      <c r="AX13" s="54"/>
+      <c r="AJ13" s="55"/>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="55"/>
+      <c r="AO13" s="55"/>
+      <c r="AP13" s="55"/>
+      <c r="AQ13" s="55"/>
+      <c r="AR13" s="55"/>
+      <c r="AS13" s="55"/>
+      <c r="AT13" s="55"/>
+      <c r="AU13" s="55"/>
+      <c r="AV13" s="55"/>
+      <c r="AW13" s="55"/>
+      <c r="AX13" s="55"/>
       <c r="CA13" s="12" t="s">
         <v>36</v>
       </c>
@@ -5302,78 +5328,66 @@
       <c r="AX16" s="23"/>
     </row>
     <row r="17" spans="3:50" x14ac:dyDescent="0.25">
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="55"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="55"/>
-      <c r="AE17" s="55"/>
-      <c r="AF17" s="55"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="54"/>
-      <c r="AR17" s="54"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="54"/>
-      <c r="AU17" s="54"/>
-      <c r="AV17" s="54"/>
-      <c r="AW17" s="54"/>
-      <c r="AX17" s="54"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="55"/>
+      <c r="AJ17" s="55"/>
+      <c r="AK17" s="55"/>
+      <c r="AL17" s="55"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="55"/>
+      <c r="AP17" s="55"/>
+      <c r="AQ17" s="55"/>
+      <c r="AR17" s="55"/>
+      <c r="AS17" s="55"/>
+      <c r="AT17" s="55"/>
+      <c r="AU17" s="55"/>
+      <c r="AV17" s="55"/>
+      <c r="AW17" s="55"/>
+      <c r="AX17" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AX13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="Z12:AF12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AX10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="Z10:AF10"/>
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="AI11:AX11"/>
     <mergeCell ref="C17:D17"/>
@@ -5390,13 +5404,25 @@
     <mergeCell ref="Z11:AF11"/>
     <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="AI12:AX12"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="Z10:AF10"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AX13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AF13"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AX9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -5563,62 +5589,62 @@
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="42"/>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="61" t="s">
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61" t="s">
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="61"/>
-      <c r="AA9" s="61" t="s">
+      <c r="U9" s="59"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="AB9" s="61"/>
-      <c r="AC9" s="61"/>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="61"/>
-      <c r="AH9" s="56" t="s">
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="59"/>
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="57"/>
-      <c r="AL9" s="57"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AO9" s="57"/>
-      <c r="AP9" s="57"/>
-      <c r="AQ9" s="57"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="57"/>
-      <c r="AT9" s="57"/>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="57"/>
-      <c r="AW9" s="57"/>
-      <c r="AX9" s="57"/>
-      <c r="AY9" s="57"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="56"/>
+      <c r="AX9" s="56"/>
+      <c r="AY9" s="56"/>
       <c r="BX9" s="12" t="s">
         <v>32</v>
       </c>
@@ -5632,62 +5658,62 @@
         <v>1</v>
       </c>
       <c r="E10" s="42"/>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="61" t="s">
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61" t="s">
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="61"/>
-      <c r="AA10" s="61" t="s">
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AB10" s="61"/>
-      <c r="AC10" s="61"/>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="61"/>
-      <c r="AH10" s="56" t="s">
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="57"/>
-      <c r="AL10" s="57"/>
-      <c r="AM10" s="57"/>
-      <c r="AN10" s="57"/>
-      <c r="AO10" s="57"/>
-      <c r="AP10" s="57"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="57"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="57"/>
-      <c r="AV10" s="57"/>
-      <c r="AW10" s="57"/>
-      <c r="AX10" s="57"/>
-      <c r="AY10" s="57"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="56"/>
+      <c r="AX10" s="56"/>
+      <c r="AY10" s="56"/>
       <c r="BX10" s="12" t="s">
         <v>62</v>
       </c>
@@ -5701,62 +5727,62 @@
         <v>2</v>
       </c>
       <c r="E11" s="42"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="61" t="s">
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61" t="s">
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="61"/>
-      <c r="AA11" s="61" t="s">
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="59"/>
+      <c r="AA11" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AB11" s="61"/>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="56" t="s">
+      <c r="AB11" s="59"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="59"/>
+      <c r="AH11" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AI11" s="56"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="57"/>
-      <c r="AL11" s="57"/>
-      <c r="AM11" s="57"/>
-      <c r="AN11" s="57"/>
-      <c r="AO11" s="57"/>
-      <c r="AP11" s="57"/>
-      <c r="AQ11" s="57"/>
-      <c r="AR11" s="57"/>
-      <c r="AS11" s="57"/>
-      <c r="AT11" s="57"/>
-      <c r="AU11" s="57"/>
-      <c r="AV11" s="57"/>
-      <c r="AW11" s="57"/>
-      <c r="AX11" s="57"/>
-      <c r="AY11" s="57"/>
+      <c r="AI11" s="60"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="56"/>
+      <c r="AY11" s="56"/>
       <c r="BX11" s="12" t="s">
         <v>63</v>
       </c>
@@ -5770,62 +5796,62 @@
         <v>3</v>
       </c>
       <c r="E12" s="42"/>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61" t="s">
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61" t="s">
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="59"/>
+      <c r="R12" s="59"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61" t="s">
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="61"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="56" t="s">
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AI12" s="56"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="57"/>
+      <c r="AI12" s="60"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="56"/>
+      <c r="AS12" s="56"/>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="56"/>
+      <c r="AX12" s="56"/>
+      <c r="AY12" s="56"/>
       <c r="CA12" s="12" t="s">
         <v>35</v>
       </c>
@@ -5836,62 +5862,62 @@
         <v>4</v>
       </c>
       <c r="E13" s="42"/>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="61" t="s">
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61" t="s">
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61" t="s">
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="61"/>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="61"/>
-      <c r="AG13" s="61"/>
-      <c r="AH13" s="56" t="s">
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AI13" s="56"/>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="57"/>
-      <c r="AL13" s="57"/>
-      <c r="AM13" s="57"/>
-      <c r="AN13" s="57"/>
-      <c r="AO13" s="57"/>
-      <c r="AP13" s="57"/>
-      <c r="AQ13" s="57"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="57"/>
-      <c r="AT13" s="57"/>
-      <c r="AU13" s="57"/>
-      <c r="AV13" s="57"/>
-      <c r="AW13" s="57"/>
-      <c r="AX13" s="57"/>
-      <c r="AY13" s="57"/>
+      <c r="AI13" s="60"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="56"/>
+      <c r="AT13" s="56"/>
+      <c r="AU13" s="56"/>
+      <c r="AV13" s="56"/>
+      <c r="AW13" s="56"/>
+      <c r="AX13" s="56"/>
+      <c r="AY13" s="56"/>
       <c r="CA13" s="12" t="s">
         <v>36</v>
       </c>
@@ -5902,62 +5928,62 @@
         <v>5</v>
       </c>
       <c r="E14" s="42"/>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61" t="s">
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61" t="s">
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="61"/>
-      <c r="AA14" s="61" t="s">
+      <c r="U14" s="59"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="59"/>
+      <c r="AA14" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AB14" s="61"/>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="56" t="s">
+      <c r="AB14" s="59"/>
+      <c r="AC14" s="59"/>
+      <c r="AD14" s="59"/>
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="59"/>
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="57"/>
-      <c r="AK14" s="57"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AO14" s="57"/>
-      <c r="AP14" s="57"/>
-      <c r="AQ14" s="57"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="57"/>
-      <c r="AT14" s="57"/>
-      <c r="AU14" s="57"/>
-      <c r="AV14" s="57"/>
-      <c r="AW14" s="57"/>
-      <c r="AX14" s="57"/>
-      <c r="AY14" s="57"/>
+      <c r="AI14" s="60"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="56"/>
+      <c r="AU14" s="56"/>
+      <c r="AV14" s="56"/>
+      <c r="AW14" s="56"/>
+      <c r="AX14" s="56"/>
+      <c r="AY14" s="56"/>
     </row>
     <row r="15" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C15" s="36"/>
@@ -5965,62 +5991,62 @@
         <v>6</v>
       </c>
       <c r="E15" s="42"/>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="61" t="s">
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61" t="s">
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61" t="s">
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AB15" s="61"/>
-      <c r="AC15" s="61"/>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="61"/>
-      <c r="AH15" s="56" t="s">
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AI15" s="56"/>
-      <c r="AJ15" s="57"/>
-      <c r="AK15" s="57"/>
-      <c r="AL15" s="57"/>
-      <c r="AM15" s="57"/>
-      <c r="AN15" s="57"/>
-      <c r="AO15" s="57"/>
-      <c r="AP15" s="57"/>
-      <c r="AQ15" s="57"/>
-      <c r="AR15" s="57"/>
-      <c r="AS15" s="57"/>
-      <c r="AT15" s="57"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="57"/>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="57"/>
-      <c r="AY15" s="57"/>
+      <c r="AI15" s="60"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="56"/>
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="56"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="56"/>
+      <c r="AW15" s="56"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
     </row>
     <row r="16" spans="2:81" x14ac:dyDescent="0.25">
       <c r="C16" s="36"/>
@@ -6028,62 +6054,62 @@
         <v>7</v>
       </c>
       <c r="E16" s="42"/>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61" t="s">
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61" t="s">
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="61"/>
-      <c r="AA16" s="61" t="s">
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AB16" s="61"/>
-      <c r="AC16" s="61"/>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="61"/>
-      <c r="AH16" s="56" t="s">
+      <c r="AB16" s="59"/>
+      <c r="AC16" s="59"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="59"/>
+      <c r="AH16" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="57"/>
-      <c r="AL16" s="57"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="57"/>
-      <c r="AO16" s="57"/>
-      <c r="AP16" s="57"/>
-      <c r="AQ16" s="57"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AT16" s="57"/>
-      <c r="AU16" s="57"/>
-      <c r="AV16" s="57"/>
-      <c r="AW16" s="57"/>
-      <c r="AX16" s="57"/>
-      <c r="AY16" s="57"/>
+      <c r="AI16" s="60"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
     </row>
     <row r="17" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C17" s="36"/>
@@ -6091,62 +6117,62 @@
         <v>8</v>
       </c>
       <c r="E17" s="33"/>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="60"/>
-      <c r="M17" s="61" t="s">
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61" t="s">
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="61"/>
-      <c r="AA17" s="61" t="s">
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AB17" s="61"/>
-      <c r="AC17" s="61"/>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="61"/>
-      <c r="AH17" s="56" t="s">
+      <c r="AB17" s="59"/>
+      <c r="AC17" s="59"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="59"/>
+      <c r="AH17" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AI17" s="56"/>
-      <c r="AJ17" s="57"/>
-      <c r="AK17" s="57"/>
-      <c r="AL17" s="57"/>
-      <c r="AM17" s="57"/>
-      <c r="AN17" s="57"/>
-      <c r="AO17" s="57"/>
-      <c r="AP17" s="57"/>
-      <c r="AQ17" s="57"/>
-      <c r="AR17" s="57"/>
-      <c r="AS17" s="57"/>
-      <c r="AT17" s="57"/>
-      <c r="AU17" s="57"/>
-      <c r="AV17" s="57"/>
-      <c r="AW17" s="57"/>
-      <c r="AX17" s="57"/>
-      <c r="AY17" s="57"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="56"/>
+      <c r="AK17" s="56"/>
+      <c r="AL17" s="56"/>
+      <c r="AM17" s="56"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="56"/>
+      <c r="AP17" s="56"/>
+      <c r="AQ17" s="56"/>
+      <c r="AR17" s="56"/>
+      <c r="AS17" s="56"/>
+      <c r="AT17" s="56"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="56"/>
+      <c r="AW17" s="56"/>
+      <c r="AX17" s="56"/>
+      <c r="AY17" s="56"/>
     </row>
     <row r="18" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C18" s="44"/>
@@ -6154,62 +6180,62 @@
         <v>9</v>
       </c>
       <c r="E18" s="39"/>
-      <c r="F18" s="59" t="s">
+      <c r="F18" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="61" t="s">
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61" t="s">
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="61"/>
-      <c r="AA18" s="61" t="s">
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="AB18" s="61"/>
-      <c r="AC18" s="61"/>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="56" t="s">
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="57"/>
-      <c r="AM18" s="57"/>
-      <c r="AN18" s="57"/>
-      <c r="AO18" s="57"/>
-      <c r="AP18" s="57"/>
-      <c r="AQ18" s="57"/>
-      <c r="AR18" s="57"/>
-      <c r="AS18" s="57"/>
-      <c r="AT18" s="57"/>
-      <c r="AU18" s="57"/>
-      <c r="AV18" s="57"/>
-      <c r="AW18" s="57"/>
-      <c r="AX18" s="57"/>
-      <c r="AY18" s="57"/>
+      <c r="AI18" s="60"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="56"/>
     </row>
     <row r="19" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C19" s="34"/>
@@ -6217,62 +6243,62 @@
       <c r="E19" s="37">
         <v>1</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="61" t="s">
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61" t="s">
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61" t="s">
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="61"/>
-      <c r="AH19" s="56" t="s">
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="57"/>
-      <c r="AK19" s="57"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="57"/>
-      <c r="AN19" s="57"/>
-      <c r="AO19" s="57"/>
-      <c r="AP19" s="57"/>
-      <c r="AQ19" s="57"/>
-      <c r="AR19" s="57"/>
-      <c r="AS19" s="57"/>
-      <c r="AT19" s="57"/>
-      <c r="AU19" s="57"/>
-      <c r="AV19" s="57"/>
-      <c r="AW19" s="57"/>
-      <c r="AX19" s="57"/>
-      <c r="AY19" s="57"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="56"/>
+      <c r="AK19" s="56"/>
+      <c r="AL19" s="56"/>
+      <c r="AM19" s="56"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="56"/>
     </row>
     <row r="20" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C20" s="34"/>
@@ -6280,62 +6306,62 @@
       <c r="E20" s="37">
         <v>2</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="61" t="s">
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61" t="s">
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="61"/>
-      <c r="AA20" s="61" t="s">
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="AB20" s="61"/>
-      <c r="AC20" s="61"/>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="61"/>
-      <c r="AG20" s="61"/>
-      <c r="AH20" s="56" t="s">
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="57"/>
-      <c r="AV20" s="57"/>
-      <c r="AW20" s="57"/>
-      <c r="AX20" s="57"/>
-      <c r="AY20" s="57"/>
+      <c r="AI20" s="60"/>
+      <c r="AJ20" s="56"/>
+      <c r="AK20" s="56"/>
+      <c r="AL20" s="56"/>
+      <c r="AM20" s="56"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="56"/>
+      <c r="AP20" s="56"/>
+      <c r="AQ20" s="56"/>
+      <c r="AR20" s="56"/>
+      <c r="AS20" s="56"/>
+      <c r="AT20" s="56"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="56"/>
+      <c r="AW20" s="56"/>
+      <c r="AX20" s="56"/>
+      <c r="AY20" s="56"/>
     </row>
     <row r="21" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C21" s="36"/>
@@ -6343,62 +6369,62 @@
         <v>10</v>
       </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61" t="s">
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61" t="s">
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="61"/>
-      <c r="AA21" s="61" t="s">
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="AB21" s="61"/>
-      <c r="AC21" s="61"/>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="61"/>
-      <c r="AH21" s="56" t="s">
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AI21" s="56"/>
-      <c r="AJ21" s="57"/>
-      <c r="AK21" s="57"/>
-      <c r="AL21" s="57"/>
-      <c r="AM21" s="57"/>
-      <c r="AN21" s="57"/>
-      <c r="AO21" s="57"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="57"/>
-      <c r="AR21" s="57"/>
-      <c r="AS21" s="57"/>
-      <c r="AT21" s="57"/>
-      <c r="AU21" s="57"/>
-      <c r="AV21" s="57"/>
-      <c r="AW21" s="57"/>
-      <c r="AX21" s="57"/>
-      <c r="AY21" s="57"/>
+      <c r="AI21" s="60"/>
+      <c r="AJ21" s="56"/>
+      <c r="AK21" s="56"/>
+      <c r="AL21" s="56"/>
+      <c r="AM21" s="56"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="56"/>
+      <c r="AQ21" s="56"/>
+      <c r="AR21" s="56"/>
+      <c r="AS21" s="56"/>
+      <c r="AT21" s="56"/>
+      <c r="AU21" s="56"/>
+      <c r="AV21" s="56"/>
+      <c r="AW21" s="56"/>
+      <c r="AX21" s="56"/>
+      <c r="AY21" s="56"/>
     </row>
     <row r="22" spans="3:51" x14ac:dyDescent="0.25">
       <c r="C22" s="15"/>
@@ -6406,135 +6432,73 @@
         <v>11</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="61" t="s">
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61" t="s">
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61" t="s">
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61"/>
-      <c r="AH22" s="56" t="s">
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="AI22" s="56"/>
-      <c r="AJ22" s="57" t="s">
+      <c r="AI22" s="60"/>
+      <c r="AJ22" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="AK22" s="57"/>
-      <c r="AL22" s="57"/>
-      <c r="AM22" s="57"/>
-      <c r="AN22" s="57"/>
-      <c r="AO22" s="57"/>
-      <c r="AP22" s="57"/>
-      <c r="AQ22" s="57"/>
-      <c r="AR22" s="57"/>
-      <c r="AS22" s="57"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="57"/>
-      <c r="AV22" s="57"/>
-      <c r="AW22" s="57"/>
-      <c r="AX22" s="57"/>
-      <c r="AY22" s="57"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
+      <c r="AM22" s="56"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="56"/>
+      <c r="AR22" s="56"/>
+      <c r="AS22" s="56"/>
+      <c r="AT22" s="56"/>
+      <c r="AU22" s="56"/>
+      <c r="AV22" s="56"/>
+      <c r="AW22" s="56"/>
+      <c r="AX22" s="56"/>
+      <c r="AY22" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AJ10:AY10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AJ11:AY11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="T12:Z12"/>
-    <mergeCell ref="AA12:AG12"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AJ12:AY12"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="T13:Z13"/>
-    <mergeCell ref="AA13:AG13"/>
-    <mergeCell ref="AJ13:AY13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="T14:Z14"/>
-    <mergeCell ref="AA14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AY14"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="T15:Z15"/>
-    <mergeCell ref="AA15:AG15"/>
-    <mergeCell ref="AJ15:AY15"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="AA16:AG16"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AJ16:AY16"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="T17:Z17"/>
-    <mergeCell ref="AA17:AG17"/>
-    <mergeCell ref="AJ17:AY17"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AG18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AJ18:AY18"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="AJ19:AY19"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AG20"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AJ20:AY20"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AG19"/>
-    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AY9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:Z9"/>
+    <mergeCell ref="AA9:AG9"/>
     <mergeCell ref="AJ21:AY21"/>
     <mergeCell ref="M22:S22"/>
     <mergeCell ref="T22:Z22"/>
@@ -6545,12 +6509,74 @@
     <mergeCell ref="T21:Z21"/>
     <mergeCell ref="AA21:AG21"/>
     <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AY9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:Z9"/>
-    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="AJ19:AY19"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AG20"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AJ20:AY20"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AG19"/>
+    <mergeCell ref="AH19:AI19"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="AJ17:AY17"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AG18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AY18"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="T17:Z17"/>
+    <mergeCell ref="AA17:AG17"/>
+    <mergeCell ref="AJ15:AY15"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="AA16:AG16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AY16"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="T15:Z15"/>
+    <mergeCell ref="AA15:AG15"/>
+    <mergeCell ref="AJ13:AY13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="T14:Z14"/>
+    <mergeCell ref="AA14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AY14"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:Z13"/>
+    <mergeCell ref="AA13:AG13"/>
+    <mergeCell ref="AJ11:AY11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="T12:Z12"/>
+    <mergeCell ref="AA12:AG12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ12:AY12"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AJ10:AY10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref001_トークテーマ一覧取得.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref001_トークテーマ一覧取得.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/develop/eternal/documents/20.開発/60.API/20.API仕様書/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BDD27C-DC6E-486B-A779-3B1CE0489A25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="2"/>
+    <workbookView xWindow="45" yWindow="465" windowWidth="38400" windowHeight="21135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -27,9 +23,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'概要(トークテーマ一覧取得)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">リクエスト!$A$1:$BV$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">レスポンス!$A$1:$BV$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'概要(トークテーマ一覧取得)'!$A$1:$BV$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">リクエスト!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">レスポンス!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'概要(トークテーマ一覧取得)'!$1:$4</definedName>
@@ -43,7 +39,7 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -56,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="109">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -335,9 +331,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>hiima/api/internal/v1/talklist</t>
-  </si>
-  <si>
     <t>・トークテーマの一覧を取得する</t>
     <rPh sb="8" eb="10">
       <t>イチラン</t>
@@ -423,14 +416,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>category</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>カテゴリ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -458,41 +443,6 @@
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>rank:総合ランキング順
-good:GOOD数順
-bad:BAD数順
-talk:トーク数順
-titile:タイトル名称</t>
-    <rPh sb="5" eb="7">
-      <t>ソウゴウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>メイショウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -577,12 +527,6 @@
     <t>categoryList</t>
   </si>
   <si>
-    <t>postedUser</t>
-  </si>
-  <si>
-    <t>postedDateTime</t>
-  </si>
-  <si>
     <t>ランキング順</t>
     <rPh sb="5" eb="6">
       <t>ジュン</t>
@@ -626,18 +570,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>カテゴリリスト</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -662,10 +595,6 @@
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>User</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -746,18 +675,84 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>postUser</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>postDateTime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>User#getUserName()</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>categoryName</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>01&lt;- rank:総合ランキング順
+02&lt;- good:GOOD数順
+03&lt;- bad:BAD数順
+04&lt;- talk:トーク数順
+05&lt;- titile:タイトル名称</t>
+    <rPh sb="10" eb="12">
+      <t>ソウゴウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリID
+カテゴリIDでリクエストを受け取る</t>
+    <rPh sb="20" eb="21">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>hiima/api/internal/v1/talkList</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;改訂日 &quot;yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;バージョン &quot;@"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1198,8 +1193,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1239,7 +1234,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1247,7 +1242,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="74705" y="116731"/>
+          <a:off x="82643" y="120700"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -1258,7 +1253,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1323,7 +1318,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1388,7 +1383,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1453,7 +1448,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1518,7 +1513,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1583,7 +1578,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1648,7 +1643,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1720,7 +1715,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1792,7 +1787,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1846,7 +1841,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年11月30日 金曜日</a:t>
+              <a:t>2018年11月30日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -1864,7 +1859,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1936,7 +1931,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2008,7 +2003,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2101,7 +2096,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4161962-57F9-41FD-BE9B-9C39ABC6F599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2109,7 +2104,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="74705" y="116731"/>
+          <a:off x="82643" y="120700"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -2120,7 +2115,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E14589-EE4C-491D-89A4-EB22863CB61C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2185,7 +2180,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A4FC26D-BF56-4446-B80D-0C5ACFEDC6A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2250,7 +2245,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{118AE21F-A33F-4231-A38E-5951C6EBB37D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2315,7 +2310,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CC184C-3B0C-4DA5-8121-88D86F00441F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2380,7 +2375,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4754AD5B-2B0B-46EE-8B71-66D219D5EC91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2445,7 +2440,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0B29AA-73DD-4127-8070-ABBDAC015AE8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2510,7 +2505,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E8159FD-54BB-4608-B580-BEF72FA5570A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2582,7 +2577,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6D827E-0519-43AB-8D27-FC082F456CD0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2654,7 +2649,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6F2712-88AD-4AB8-86C6-D7FB58A2F819}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2708,7 +2703,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年11月30日 金曜日</a:t>
+              <a:t>2018年11月30日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2726,7 +2721,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15534BB0-4CA1-44E0-A343-8E7681B066C1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2798,7 +2793,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFCA127E-94E6-429E-9CA3-34DA0CE0CE72}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2870,7 +2865,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333B060A-0145-448A-A964-D699A9FE1714}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2963,7 +2958,7 @@
         <xdr:cNvPr id="2" name="グループ化 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26842C9-0618-40AE-B87D-E87EF0BA4636}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2971,7 +2966,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="74705" y="116731"/>
+          <a:off x="82643" y="120700"/>
           <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
@@ -2982,7 +2977,7 @@
           <xdr:cNvPr id="3" name="正方形/長方形 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FBE5C9-53BB-4CF8-8AD1-EB095CBE281F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3047,7 +3042,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6BA1B8A-20F1-46E8-94E5-10EC4AEE2D09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3112,7 +3107,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9780BBE8-AC48-4FB7-AAE5-FCCABF1F3CAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3177,7 +3172,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E881EB-BDAC-49DC-BC18-62C7AFFF07EB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3242,7 +3237,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F811C6-71CA-4EB7-AA95-42C42BEC18E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3307,7 +3302,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC81A55-158C-448F-BC49-95752FE3AC2A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3372,7 +3367,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E94C7391-D5EA-46A1-90B1-7F7F94EB8CAE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3444,7 +3439,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45A86A5-E097-4C25-966B-43675226397A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3516,7 +3511,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15205912-C6AF-458D-B46C-B7B5D8916BEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3570,7 +3565,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年11月30日 金曜日</a:t>
+              <a:t>2018年11月30日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3588,7 +3583,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08AB3292-595D-4F80-888F-88AA0A053D67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3660,7 +3655,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37098A9-4FA1-4543-9354-A3F5552B7C0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3732,7 +3727,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD461C66-31E3-4F1F-A282-33FBF4E7E16F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -3809,23 +3804,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="表紙"/>
       <sheetName val="変更履歴"/>
-      <sheetName val="画面仕様(XXX画面)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>0.0.1</v>
-          </cell>
-          <cell r="D5">
-            <v>42736</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4117,35 +4099,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="1"/>
-    <col min="3" max="3" width="3.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.1640625" style="1"/>
+    <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.125" style="1"/>
+    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="24.75">
       <c r="B2" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="35.25">
       <c r="C10" s="3" t="str">
         <f ca="1">SUBSTITUTE(MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND("]",CELL("filename",A1))-FIND("[",CELL("filename",A1))-1),".xlsx","")</f>
         <v>【eternal】API仕様書_Ref001_トークテーマ一覧取得</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
@@ -4171,7 +4153,7 @@
       <c r="Y13" s="49"/>
       <c r="Z13" s="49"/>
     </row>
-    <row r="21" spans="2:51" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4223,12 +4205,12 @@
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
     </row>
-    <row r="22" spans="2:51" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:51" ht="19.5">
       <c r="C22" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:51">
       <c r="AO27" s="46">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
         <v>43449</v>
@@ -4244,7 +4226,7 @@
       <c r="AX27" s="47"/>
       <c r="AY27" s="47"/>
     </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:51">
       <c r="AR28" s="48" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
         <v>0.0.2</v>
@@ -4257,10 +4239,10 @@
       <c r="AX28" s="48"/>
       <c r="AY28" s="48"/>
     </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
     </row>
-    <row r="35" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="6" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AO27:AY27"/>
@@ -4269,36 +4251,36 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="82" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4312,7 +4294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="18" t="s">
         <v>14</v>
       </c>
@@ -4326,12 +4308,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="38" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="37.5">
       <c r="B6" s="18" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D6" s="9">
         <v>43449</v>
@@ -4340,115 +4322,115 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5">
       <c r="B7" s="18"/>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="18"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" s="18"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" s="18"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" s="18"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12" s="18"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4457,13 +4439,13 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC18"/>
@@ -4473,17 +4455,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.1640625" style="12"/>
-    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.1640625" style="12"/>
+    <col min="1" max="1" width="0.875" style="12" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="12" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="12"/>
+    <col min="76" max="82" width="8.625" style="12" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:81">
       <c r="BX2" s="13" t="s">
         <v>11</v>
       </c>
@@ -4503,7 +4485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:81">
       <c r="BX3" s="13" t="s">
         <v>16</v>
       </c>
@@ -4520,28 +4502,28 @@
       <c r="CB3" s="14"/>
       <c r="CC3" s="13"/>
     </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:81" ht="18" customHeight="1"/>
+    <row r="6" spans="2:81">
       <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:81">
       <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:81">
+      <c r="C8" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
-      <c r="C8" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:81">
       <c r="B10" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:81" ht="20" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:81" ht="19.5">
       <c r="C11" s="27" t="s">
         <v>27</v>
       </c>
@@ -4579,7 +4561,7 @@
       <c r="AG11" s="28"/>
       <c r="AH11" s="23"/>
     </row>
-    <row r="12" spans="2:81" ht="20" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:81" ht="19.5">
       <c r="C12" s="50" t="s">
         <v>25</v>
       </c>
@@ -4588,7 +4570,7 @@
       <c r="F12" s="51"/>
       <c r="G12" s="52"/>
       <c r="H12" s="29" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -4617,17 +4599,17 @@
       <c r="AG12" s="16"/>
       <c r="AH12" s="17"/>
     </row>
-    <row r="14" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:81">
       <c r="B14" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:81">
       <c r="C15" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="2:81" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:81">
       <c r="C16" s="22" t="s">
         <v>19</v>
       </c>
@@ -4667,13 +4649,13 @@
       <c r="AG16" s="25"/>
       <c r="AH16" s="26"/>
     </row>
-    <row r="17" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:34">
       <c r="C17" s="19">
         <v>1</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
@@ -4690,7 +4672,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="21"/>
       <c r="T17" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
@@ -4707,13 +4689,13 @@
       <c r="AG17" s="20"/>
       <c r="AH17" s="21"/>
     </row>
-    <row r="18" spans="3:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:34">
       <c r="C18" s="19">
         <v>2</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
@@ -4730,7 +4712,7 @@
       <c r="R18" s="20"/>
       <c r="S18" s="21"/>
       <c r="T18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
@@ -4753,19 +4735,19 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"GET,POST,PUT,DELETE"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC17"/>
@@ -4775,17 +4757,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.1640625" style="12"/>
-    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.1640625" style="12"/>
+    <col min="1" max="1" width="0.875" style="12" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="12" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="12"/>
+    <col min="76" max="82" width="8.625" style="12" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:81">
       <c r="BX2" s="13" t="s">
         <v>11</v>
       </c>
@@ -4805,7 +4787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:81">
       <c r="BX3" s="13" t="s">
         <v>16</v>
       </c>
@@ -4822,15 +4804,15 @@
       <c r="CB3" s="14"/>
       <c r="CC3" s="13"/>
     </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:81" ht="18" customHeight="1"/>
+    <row r="6" spans="2:81">
       <c r="B6" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:81">
       <c r="C7" s="12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="BX7" s="12" t="s">
         <v>34</v>
@@ -4839,7 +4821,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:81">
       <c r="C8" s="22" t="s">
         <v>24</v>
       </c>
@@ -4909,14 +4891,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:81">
       <c r="C9" s="53">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -4925,7 +4907,7 @@
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
       <c r="L9" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
@@ -4934,7 +4916,7 @@
       <c r="Q9" s="53"/>
       <c r="R9" s="53"/>
       <c r="S9" s="53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T9" s="53"/>
       <c r="U9" s="53"/>
@@ -4943,7 +4925,7 @@
       <c r="X9" s="53"/>
       <c r="Y9" s="53"/>
       <c r="Z9" s="53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AA9" s="53"/>
       <c r="AB9" s="53"/>
@@ -4952,11 +4934,11 @@
       <c r="AE9" s="53"/>
       <c r="AF9" s="53"/>
       <c r="AG9" s="54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AH9" s="54"/>
       <c r="AI9" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AJ9" s="55"/>
       <c r="AK9" s="55"/>
@@ -4980,14 +4962,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:81">
       <c r="C10" s="53">
         <f>ROW()-ROW($C$8)</f>
         <v>2</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -4996,7 +4978,7 @@
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
       <c r="L10" s="53" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M10" s="53"/>
       <c r="N10" s="53"/>
@@ -5005,7 +4987,7 @@
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
       <c r="S10" s="53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T10" s="53"/>
       <c r="U10" s="53"/>
@@ -5014,7 +4996,7 @@
       <c r="X10" s="53"/>
       <c r="Y10" s="53"/>
       <c r="Z10" s="53" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AA10" s="53"/>
       <c r="AB10" s="53"/>
@@ -5023,11 +5005,11 @@
       <c r="AE10" s="53"/>
       <c r="AF10" s="53"/>
       <c r="AG10" s="54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AH10" s="54"/>
       <c r="AI10" s="55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AJ10" s="55"/>
       <c r="AK10" s="55"/>
@@ -5045,20 +5027,20 @@
       <c r="AW10" s="55"/>
       <c r="AX10" s="55"/>
       <c r="BX10" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="CA10" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="2:81" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:81" ht="37.5" customHeight="1">
       <c r="C11" s="53">
         <f>ROW()-ROW($C$8)</f>
         <v>3</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -5067,7 +5049,7 @@
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
       <c r="L11" s="53" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="M11" s="53"/>
       <c r="N11" s="53"/>
@@ -5076,7 +5058,7 @@
       <c r="Q11" s="53"/>
       <c r="R11" s="53"/>
       <c r="S11" s="53" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="T11" s="53"/>
       <c r="U11" s="53"/>
@@ -5085,7 +5067,7 @@
       <c r="X11" s="53"/>
       <c r="Y11" s="53"/>
       <c r="Z11" s="53" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="AA11" s="53"/>
       <c r="AB11" s="53"/>
@@ -5094,11 +5076,11 @@
       <c r="AE11" s="53"/>
       <c r="AF11" s="53"/>
       <c r="AG11" s="54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AH11" s="54"/>
       <c r="AI11" s="55" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="AJ11" s="55"/>
       <c r="AK11" s="55"/>
@@ -5116,20 +5098,20 @@
       <c r="AW11" s="55"/>
       <c r="AX11" s="55"/>
       <c r="BX11" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="CA11" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:81" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:81" ht="95.25" customHeight="1">
       <c r="C12" s="53">
         <f>ROW()-ROW($C$8)</f>
         <v>4</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
@@ -5138,7 +5120,7 @@
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
       <c r="L12" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M12" s="53"/>
       <c r="N12" s="53"/>
@@ -5147,7 +5129,7 @@
       <c r="Q12" s="53"/>
       <c r="R12" s="53"/>
       <c r="S12" s="53" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="T12" s="53"/>
       <c r="U12" s="53"/>
@@ -5156,7 +5138,7 @@
       <c r="X12" s="53"/>
       <c r="Y12" s="53"/>
       <c r="Z12" s="53" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="AA12" s="53"/>
       <c r="AB12" s="53"/>
@@ -5165,11 +5147,11 @@
       <c r="AE12" s="53"/>
       <c r="AF12" s="53"/>
       <c r="AG12" s="54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AH12" s="54"/>
       <c r="AI12" s="55" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="AJ12" s="55"/>
       <c r="AK12" s="55"/>
@@ -5190,14 +5172,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:81" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:81" ht="38.25" customHeight="1">
       <c r="C13" s="53">
         <f>ROW()-ROW($C$8)</f>
         <v>5</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -5206,7 +5188,7 @@
       <c r="J13" s="53"/>
       <c r="K13" s="53"/>
       <c r="L13" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M13" s="53"/>
       <c r="N13" s="53"/>
@@ -5215,7 +5197,7 @@
       <c r="Q13" s="53"/>
       <c r="R13" s="53"/>
       <c r="S13" s="53" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="T13" s="53"/>
       <c r="U13" s="53"/>
@@ -5224,7 +5206,7 @@
       <c r="X13" s="53"/>
       <c r="Y13" s="53"/>
       <c r="Z13" s="53" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AA13" s="53"/>
       <c r="AB13" s="53"/>
@@ -5233,11 +5215,11 @@
       <c r="AE13" s="53"/>
       <c r="AF13" s="53"/>
       <c r="AG13" s="54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AH13" s="54"/>
       <c r="AI13" s="55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AJ13" s="55"/>
       <c r="AK13" s="55"/>
@@ -5258,12 +5240,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:81">
       <c r="C15" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="2:81" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:81">
       <c r="C16" s="22" t="s">
         <v>19</v>
       </c>
@@ -5327,9 +5309,9 @@
       <c r="AW16" s="28"/>
       <c r="AX16" s="23"/>
     </row>
-    <row r="17" spans="3:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:50">
       <c r="C17" s="53" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
@@ -5426,19 +5408,19 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG17:AH17 AG9:AH13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG17:AH17 AG9:AH13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:CC22"/>
@@ -5448,17 +5430,17 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.1640625" style="12"/>
-    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.1640625" style="12"/>
+    <col min="1" max="1" width="0.875" style="12" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="12" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="12"/>
+    <col min="76" max="82" width="8.625" style="12" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:81" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:81" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:81" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:81">
       <c r="BX2" s="13" t="s">
         <v>11</v>
       </c>
@@ -5478,7 +5460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:81" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:81">
       <c r="BX3" s="13" t="s">
         <v>16</v>
       </c>
@@ -5495,15 +5477,15 @@
       <c r="CB3" s="14"/>
       <c r="CC3" s="13"/>
     </row>
-    <row r="4" spans="2:81" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:81" ht="18" customHeight="1"/>
+    <row r="6" spans="2:81">
       <c r="B6" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:81">
       <c r="C7" s="12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BX7" s="12" t="s">
         <v>34</v>
@@ -5512,7 +5494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:81">
       <c r="C8" s="22" t="s">
         <v>24</v>
       </c>
@@ -5583,14 +5565,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:81">
       <c r="C9" s="35">
         <v>1</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="42"/>
       <c r="F9" s="61" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
@@ -5599,7 +5581,7 @@
       <c r="K9" s="57"/>
       <c r="L9" s="58"/>
       <c r="M9" s="59" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="N9" s="59"/>
       <c r="O9" s="59"/>
@@ -5608,7 +5590,7 @@
       <c r="R9" s="59"/>
       <c r="S9" s="59"/>
       <c r="T9" s="59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U9" s="59"/>
       <c r="V9" s="59"/>
@@ -5617,7 +5599,7 @@
       <c r="Y9" s="59"/>
       <c r="Z9" s="59"/>
       <c r="AA9" s="59" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="AB9" s="59"/>
       <c r="AC9" s="59"/>
@@ -5626,7 +5608,7 @@
       <c r="AF9" s="59"/>
       <c r="AG9" s="59"/>
       <c r="AH9" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI9" s="60"/>
       <c r="AJ9" s="56"/>
@@ -5652,14 +5634,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:81">
       <c r="C10" s="36"/>
       <c r="D10" s="43">
         <v>1</v>
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="57" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
@@ -5668,7 +5650,7 @@
       <c r="K10" s="57"/>
       <c r="L10" s="58"/>
       <c r="M10" s="59" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N10" s="59"/>
       <c r="O10" s="59"/>
@@ -5677,7 +5659,7 @@
       <c r="R10" s="59"/>
       <c r="S10" s="59"/>
       <c r="T10" s="59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U10" s="59"/>
       <c r="V10" s="59"/>
@@ -5686,7 +5668,7 @@
       <c r="Y10" s="59"/>
       <c r="Z10" s="59"/>
       <c r="AA10" s="59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AB10" s="59"/>
       <c r="AC10" s="59"/>
@@ -5695,7 +5677,7 @@
       <c r="AF10" s="59"/>
       <c r="AG10" s="59"/>
       <c r="AH10" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI10" s="60"/>
       <c r="AJ10" s="56"/>
@@ -5715,20 +5697,20 @@
       <c r="AX10" s="56"/>
       <c r="AY10" s="56"/>
       <c r="BX10" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="CA10" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="2:81" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:81">
       <c r="C11" s="36"/>
       <c r="D11" s="43">
         <v>2</v>
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
@@ -5737,7 +5719,7 @@
       <c r="K11" s="57"/>
       <c r="L11" s="58"/>
       <c r="M11" s="59" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="N11" s="59"/>
       <c r="O11" s="59"/>
@@ -5746,7 +5728,7 @@
       <c r="R11" s="59"/>
       <c r="S11" s="59"/>
       <c r="T11" s="59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U11" s="59"/>
       <c r="V11" s="59"/>
@@ -5755,7 +5737,7 @@
       <c r="Y11" s="59"/>
       <c r="Z11" s="59"/>
       <c r="AA11" s="59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AB11" s="59"/>
       <c r="AC11" s="59"/>
@@ -5764,7 +5746,7 @@
       <c r="AF11" s="59"/>
       <c r="AG11" s="59"/>
       <c r="AH11" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI11" s="60"/>
       <c r="AJ11" s="56"/>
@@ -5784,20 +5766,20 @@
       <c r="AX11" s="56"/>
       <c r="AY11" s="56"/>
       <c r="BX11" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="CA11" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:81">
       <c r="C12" s="36"/>
       <c r="D12" s="43">
         <v>3</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -5806,7 +5788,7 @@
       <c r="K12" s="57"/>
       <c r="L12" s="58"/>
       <c r="M12" s="59" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="N12" s="59"/>
       <c r="O12" s="59"/>
@@ -5815,7 +5797,7 @@
       <c r="R12" s="59"/>
       <c r="S12" s="59"/>
       <c r="T12" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U12" s="59"/>
       <c r="V12" s="59"/>
@@ -5824,7 +5806,7 @@
       <c r="Y12" s="59"/>
       <c r="Z12" s="59"/>
       <c r="AA12" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AB12" s="59"/>
       <c r="AC12" s="59"/>
@@ -5833,7 +5815,7 @@
       <c r="AF12" s="59"/>
       <c r="AG12" s="59"/>
       <c r="AH12" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI12" s="60"/>
       <c r="AJ12" s="56"/>
@@ -5856,14 +5838,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:81">
       <c r="C13" s="36"/>
       <c r="D13" s="43">
         <v>4</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -5872,7 +5854,7 @@
       <c r="K13" s="57"/>
       <c r="L13" s="58"/>
       <c r="M13" s="59" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="N13" s="59"/>
       <c r="O13" s="59"/>
@@ -5881,7 +5863,7 @@
       <c r="R13" s="59"/>
       <c r="S13" s="59"/>
       <c r="T13" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U13" s="59"/>
       <c r="V13" s="59"/>
@@ -5890,7 +5872,7 @@
       <c r="Y13" s="59"/>
       <c r="Z13" s="59"/>
       <c r="AA13" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AB13" s="59"/>
       <c r="AC13" s="59"/>
@@ -5899,7 +5881,7 @@
       <c r="AF13" s="59"/>
       <c r="AG13" s="59"/>
       <c r="AH13" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI13" s="60"/>
       <c r="AJ13" s="56"/>
@@ -5922,14 +5904,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:81">
       <c r="C14" s="36"/>
       <c r="D14" s="43">
         <v>5</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="61" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
@@ -5938,7 +5920,7 @@
       <c r="K14" s="57"/>
       <c r="L14" s="58"/>
       <c r="M14" s="59" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="N14" s="59"/>
       <c r="O14" s="59"/>
@@ -5947,7 +5929,7 @@
       <c r="R14" s="59"/>
       <c r="S14" s="59"/>
       <c r="T14" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U14" s="59"/>
       <c r="V14" s="59"/>
@@ -5956,7 +5938,7 @@
       <c r="Y14" s="59"/>
       <c r="Z14" s="59"/>
       <c r="AA14" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
@@ -5965,7 +5947,7 @@
       <c r="AF14" s="59"/>
       <c r="AG14" s="59"/>
       <c r="AH14" s="60" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AI14" s="60"/>
       <c r="AJ14" s="56"/>
@@ -5985,14 +5967,14 @@
       <c r="AX14" s="56"/>
       <c r="AY14" s="56"/>
     </row>
-    <row r="15" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:81">
       <c r="C15" s="36"/>
       <c r="D15" s="43">
         <v>6</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="61" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
@@ -6001,7 +5983,7 @@
       <c r="K15" s="57"/>
       <c r="L15" s="58"/>
       <c r="M15" s="59" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="N15" s="59"/>
       <c r="O15" s="59"/>
@@ -6010,7 +5992,7 @@
       <c r="R15" s="59"/>
       <c r="S15" s="59"/>
       <c r="T15" s="59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
@@ -6019,7 +6001,7 @@
       <c r="Y15" s="59"/>
       <c r="Z15" s="59"/>
       <c r="AA15" s="59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
@@ -6028,7 +6010,7 @@
       <c r="AF15" s="59"/>
       <c r="AG15" s="59"/>
       <c r="AH15" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI15" s="60"/>
       <c r="AJ15" s="56"/>
@@ -6048,14 +6030,14 @@
       <c r="AX15" s="56"/>
       <c r="AY15" s="56"/>
     </row>
-    <row r="16" spans="2:81" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:81">
       <c r="C16" s="36"/>
       <c r="D16" s="43">
         <v>7</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
@@ -6064,7 +6046,7 @@
       <c r="K16" s="57"/>
       <c r="L16" s="58"/>
       <c r="M16" s="59" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N16" s="59"/>
       <c r="O16" s="59"/>
@@ -6073,7 +6055,7 @@
       <c r="R16" s="59"/>
       <c r="S16" s="59"/>
       <c r="T16" s="59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U16" s="59"/>
       <c r="V16" s="59"/>
@@ -6082,7 +6064,7 @@
       <c r="Y16" s="59"/>
       <c r="Z16" s="59"/>
       <c r="AA16" s="59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AB16" s="59"/>
       <c r="AC16" s="59"/>
@@ -6091,7 +6073,7 @@
       <c r="AF16" s="59"/>
       <c r="AG16" s="59"/>
       <c r="AH16" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI16" s="60"/>
       <c r="AJ16" s="56"/>
@@ -6111,14 +6093,14 @@
       <c r="AX16" s="56"/>
       <c r="AY16" s="56"/>
     </row>
-    <row r="17" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:51">
       <c r="C17" s="36"/>
       <c r="D17" s="32">
         <v>8</v>
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
@@ -6127,7 +6109,7 @@
       <c r="K17" s="57"/>
       <c r="L17" s="58"/>
       <c r="M17" s="59" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N17" s="59"/>
       <c r="O17" s="59"/>
@@ -6136,7 +6118,7 @@
       <c r="R17" s="59"/>
       <c r="S17" s="59"/>
       <c r="T17" s="59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U17" s="59"/>
       <c r="V17" s="59"/>
@@ -6145,7 +6127,7 @@
       <c r="Y17" s="59"/>
       <c r="Z17" s="59"/>
       <c r="AA17" s="59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AB17" s="59"/>
       <c r="AC17" s="59"/>
@@ -6154,7 +6136,7 @@
       <c r="AF17" s="59"/>
       <c r="AG17" s="59"/>
       <c r="AH17" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI17" s="60"/>
       <c r="AJ17" s="56"/>
@@ -6174,14 +6156,14 @@
       <c r="AX17" s="56"/>
       <c r="AY17" s="56"/>
     </row>
-    <row r="18" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:51">
       <c r="C18" s="44"/>
       <c r="D18" s="38">
         <v>9</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="57" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
@@ -6190,7 +6172,7 @@
       <c r="K18" s="57"/>
       <c r="L18" s="58"/>
       <c r="M18" s="59" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="N18" s="59"/>
       <c r="O18" s="59"/>
@@ -6199,7 +6181,7 @@
       <c r="R18" s="59"/>
       <c r="S18" s="59"/>
       <c r="T18" s="59" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
@@ -6208,7 +6190,7 @@
       <c r="Y18" s="59"/>
       <c r="Z18" s="59"/>
       <c r="AA18" s="59" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AB18" s="59"/>
       <c r="AC18" s="59"/>
@@ -6217,7 +6199,7 @@
       <c r="AF18" s="59"/>
       <c r="AG18" s="59"/>
       <c r="AH18" s="60" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AI18" s="60"/>
       <c r="AJ18" s="56"/>
@@ -6237,14 +6219,14 @@
       <c r="AX18" s="56"/>
       <c r="AY18" s="56"/>
     </row>
-    <row r="19" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:51">
       <c r="C19" s="34"/>
       <c r="D19" s="40"/>
       <c r="E19" s="37">
         <v>1</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
@@ -6253,7 +6235,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
       <c r="M19" s="59" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="N19" s="59"/>
       <c r="O19" s="59"/>
@@ -6262,7 +6244,7 @@
       <c r="R19" s="59"/>
       <c r="S19" s="59"/>
       <c r="T19" s="59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U19" s="59"/>
       <c r="V19" s="59"/>
@@ -6271,7 +6253,7 @@
       <c r="Y19" s="59"/>
       <c r="Z19" s="59"/>
       <c r="AA19" s="59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AB19" s="59"/>
       <c r="AC19" s="59"/>
@@ -6280,7 +6262,7 @@
       <c r="AF19" s="59"/>
       <c r="AG19" s="59"/>
       <c r="AH19" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI19" s="60"/>
       <c r="AJ19" s="56"/>
@@ -6300,14 +6282,14 @@
       <c r="AX19" s="56"/>
       <c r="AY19" s="56"/>
     </row>
-    <row r="20" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:51">
       <c r="C20" s="34"/>
       <c r="D20" s="41"/>
       <c r="E20" s="37">
         <v>2</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
@@ -6316,7 +6298,7 @@
       <c r="K20" s="57"/>
       <c r="L20" s="58"/>
       <c r="M20" s="59" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="N20" s="59"/>
       <c r="O20" s="59"/>
@@ -6325,7 +6307,7 @@
       <c r="R20" s="59"/>
       <c r="S20" s="59"/>
       <c r="T20" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U20" s="59"/>
       <c r="V20" s="59"/>
@@ -6334,7 +6316,7 @@
       <c r="Y20" s="59"/>
       <c r="Z20" s="59"/>
       <c r="AA20" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AB20" s="59"/>
       <c r="AC20" s="59"/>
@@ -6343,7 +6325,7 @@
       <c r="AF20" s="59"/>
       <c r="AG20" s="59"/>
       <c r="AH20" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI20" s="60"/>
       <c r="AJ20" s="56"/>
@@ -6363,14 +6345,14 @@
       <c r="AX20" s="56"/>
       <c r="AY20" s="56"/>
     </row>
-    <row r="21" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:51">
       <c r="C21" s="36"/>
       <c r="D21" s="30">
         <v>10</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="61" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -6379,7 +6361,7 @@
       <c r="K21" s="57"/>
       <c r="L21" s="58"/>
       <c r="M21" s="59" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="N21" s="59"/>
       <c r="O21" s="59"/>
@@ -6388,7 +6370,7 @@
       <c r="R21" s="59"/>
       <c r="S21" s="59"/>
       <c r="T21" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U21" s="59"/>
       <c r="V21" s="59"/>
@@ -6397,7 +6379,7 @@
       <c r="Y21" s="59"/>
       <c r="Z21" s="59"/>
       <c r="AA21" s="59" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="AB21" s="59"/>
       <c r="AC21" s="59"/>
@@ -6406,10 +6388,12 @@
       <c r="AF21" s="59"/>
       <c r="AG21" s="59"/>
       <c r="AH21" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI21" s="60"/>
-      <c r="AJ21" s="56"/>
+      <c r="AJ21" s="56" t="s">
+        <v>104</v>
+      </c>
       <c r="AK21" s="56"/>
       <c r="AL21" s="56"/>
       <c r="AM21" s="56"/>
@@ -6426,14 +6410,14 @@
       <c r="AX21" s="56"/>
       <c r="AY21" s="56"/>
     </row>
-    <row r="22" spans="3:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:51">
       <c r="C22" s="15"/>
       <c r="D22" s="43">
         <v>11</v>
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="61" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
@@ -6442,7 +6426,7 @@
       <c r="K22" s="57"/>
       <c r="L22" s="58"/>
       <c r="M22" s="59" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="N22" s="59"/>
       <c r="O22" s="59"/>
@@ -6451,7 +6435,7 @@
       <c r="R22" s="59"/>
       <c r="S22" s="59"/>
       <c r="T22" s="59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U22" s="59"/>
       <c r="V22" s="59"/>
@@ -6460,7 +6444,7 @@
       <c r="Y22" s="59"/>
       <c r="Z22" s="59"/>
       <c r="AA22" s="59" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="AB22" s="59"/>
       <c r="AC22" s="59"/>
@@ -6469,11 +6453,11 @@
       <c r="AF22" s="59"/>
       <c r="AG22" s="59"/>
       <c r="AH22" s="60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AI22" s="60"/>
       <c r="AJ22" s="56" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="AK22" s="56"/>
       <c r="AL22" s="56"/>
@@ -6579,13 +6563,13 @@
     <mergeCell ref="AH10:AI10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AI22">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH9:AI22" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref001_トークテーマ一覧取得.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref001_トークテーマ一覧取得.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BDD27C-DC6E-486B-A779-3B1CE0489A25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064E4F20-5ED2-49F5-85F7-75845E0D96AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="465" windowWidth="38400" windowHeight="21135" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="113">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -380,10 +380,6 @@
     <t>HI-02-01</t>
   </si>
   <si>
-    <t>count</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -446,36 +442,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>maxCount</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>最大取得数</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>取得数の最大値</t>
-    <rPh sb="0" eb="2">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>サイダイチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>カテゴリ名</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
@@ -492,17 +458,6 @@
   </si>
   <si>
     <t>SortKeyType</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>asc:昇順
-desc:降順</t>
-    <rPh sb="4" eb="6">
-      <t>ショウジュン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウジュン</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -727,18 +682,109 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>hiima/api/internal/v1/talkList</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">asc:昇順
+desc:降順
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>※デフォルトは昇順</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウジュン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>カテゴリID
-カテゴリIDでリクエストを受け取る</t>
+カテゴリIDでレスポンスを絞り込む</t>
     <rPh sb="20" eb="21">
-      <t>ウ</t>
+      <t>シボ</t>
     </rPh>
     <rPh sb="22" eb="23">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>hiima/api/internal/v1/talkList</t>
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>柴</t>
+    <rPh sb="0" eb="1">
+      <t>シバ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>0.0.3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リクエスト
+・未設定の可能性のある項目にデフォルト値を追記</t>
+    <rPh sb="7" eb="10">
+      <t>ミセッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>取得するページ</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>取得数
+※最大値は100</t>
+    <rPh sb="0" eb="2">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サイダイチ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -752,7 +798,7 @@
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,6 +887,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2847,7 +2900,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>2019年2月11日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2919,7 +2972,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>柴</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -4213,7 +4266,7 @@
     <row r="27" spans="2:51">
       <c r="AO27" s="46">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43449</v>
+        <v>43507</v>
       </c>
       <c r="AP27" s="47"/>
       <c r="AQ27" s="47"/>
@@ -4229,7 +4282,7 @@
     <row r="28" spans="2:51">
       <c r="AR28" s="48" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.2</v>
+        <v>0.0.3</v>
       </c>
       <c r="AS28" s="48"/>
       <c r="AT28" s="48"/>
@@ -4262,7 +4315,7 @@
   </sheetPr>
   <dimension ref="B2:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
@@ -4310,10 +4363,10 @@
     </row>
     <row r="6" spans="2:5" ht="37.5">
       <c r="B6" s="18" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D6" s="9">
         <v>43449</v>
@@ -4322,11 +4375,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="18"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
+    <row r="7" spans="2:5" ht="37.5">
+      <c r="B7" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43507</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="18"/>
@@ -4439,7 +4500,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="94" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4570,7 +4631,7 @@
       <c r="F12" s="51"/>
       <c r="G12" s="52"/>
       <c r="H12" s="29" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -4606,7 +4667,7 @@
     </row>
     <row r="15" spans="2:81">
       <c r="C15" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:81">
@@ -4801,8 +4862,12 @@
       <c r="CA3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="13"/>
+      <c r="CB3" s="14">
+        <v>43507</v>
+      </c>
+      <c r="CC3" s="13" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
     <row r="6" spans="2:81">
@@ -4812,7 +4877,7 @@
     </row>
     <row r="7" spans="2:81">
       <c r="C7" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="BX7" s="12" t="s">
         <v>34</v>
@@ -4898,7 +4963,7 @@
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="F9" s="53"/>
       <c r="G9" s="53"/>
@@ -4907,7 +4972,7 @@
       <c r="J9" s="53"/>
       <c r="K9" s="53"/>
       <c r="L9" s="53" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="M9" s="53"/>
       <c r="N9" s="53"/>
@@ -4916,7 +4981,7 @@
       <c r="Q9" s="53"/>
       <c r="R9" s="53"/>
       <c r="S9" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T9" s="53"/>
       <c r="U9" s="53"/>
@@ -4925,7 +4990,7 @@
       <c r="X9" s="53"/>
       <c r="Y9" s="53"/>
       <c r="Z9" s="53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AA9" s="53"/>
       <c r="AB9" s="53"/>
@@ -4938,7 +5003,7 @@
       </c>
       <c r="AH9" s="54"/>
       <c r="AI9" s="55" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="AJ9" s="55"/>
       <c r="AK9" s="55"/>
@@ -4962,14 +5027,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:81">
+    <row r="10" spans="2:81" ht="37.5" customHeight="1">
       <c r="C10" s="53">
         <f>ROW()-ROW($C$8)</f>
         <v>2</v>
       </c>
       <c r="D10" s="53"/>
       <c r="E10" s="53" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="F10" s="53"/>
       <c r="G10" s="53"/>
@@ -4978,7 +5043,7 @@
       <c r="J10" s="53"/>
       <c r="K10" s="53"/>
       <c r="L10" s="53" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M10" s="53"/>
       <c r="N10" s="53"/>
@@ -4987,7 +5052,7 @@
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
       <c r="S10" s="53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T10" s="53"/>
       <c r="U10" s="53"/>
@@ -4996,7 +5061,7 @@
       <c r="X10" s="53"/>
       <c r="Y10" s="53"/>
       <c r="Z10" s="53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AA10" s="53"/>
       <c r="AB10" s="53"/>
@@ -5005,11 +5070,11 @@
       <c r="AE10" s="53"/>
       <c r="AF10" s="53"/>
       <c r="AG10" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH10" s="54"/>
       <c r="AI10" s="55" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="AJ10" s="55"/>
       <c r="AK10" s="55"/>
@@ -5027,10 +5092,10 @@
       <c r="AW10" s="55"/>
       <c r="AX10" s="55"/>
       <c r="BX10" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CA10" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:81" ht="37.5" customHeight="1">
@@ -5040,7 +5105,7 @@
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="53" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F11" s="53"/>
       <c r="G11" s="53"/>
@@ -5049,7 +5114,7 @@
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
       <c r="L11" s="53" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="M11" s="53"/>
       <c r="N11" s="53"/>
@@ -5076,11 +5141,11 @@
       <c r="AE11" s="53"/>
       <c r="AF11" s="53"/>
       <c r="AG11" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH11" s="54"/>
       <c r="AI11" s="55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AJ11" s="55"/>
       <c r="AK11" s="55"/>
@@ -5098,7 +5163,7 @@
       <c r="AW11" s="55"/>
       <c r="AX11" s="55"/>
       <c r="BX11" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CA11" s="12" t="s">
         <v>33</v>
@@ -5111,7 +5176,7 @@
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="53"/>
       <c r="G12" s="53"/>
@@ -5120,7 +5185,7 @@
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
       <c r="L12" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M12" s="53"/>
       <c r="N12" s="53"/>
@@ -5138,7 +5203,7 @@
       <c r="X12" s="53"/>
       <c r="Y12" s="53"/>
       <c r="Z12" s="53" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AA12" s="53"/>
       <c r="AB12" s="53"/>
@@ -5147,11 +5212,11 @@
       <c r="AE12" s="53"/>
       <c r="AF12" s="53"/>
       <c r="AG12" s="54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH12" s="54"/>
       <c r="AI12" s="55" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="AJ12" s="55"/>
       <c r="AK12" s="55"/>
@@ -5172,14 +5237,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:81" ht="38.25" customHeight="1">
+    <row r="13" spans="2:81" ht="56.25" customHeight="1">
       <c r="C13" s="53">
         <f>ROW()-ROW($C$8)</f>
         <v>5</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="53"/>
       <c r="G13" s="53"/>
@@ -5188,7 +5253,7 @@
       <c r="J13" s="53"/>
       <c r="K13" s="53"/>
       <c r="L13" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="53"/>
       <c r="N13" s="53"/>
@@ -5197,7 +5262,7 @@
       <c r="Q13" s="53"/>
       <c r="R13" s="53"/>
       <c r="S13" s="53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T13" s="53"/>
       <c r="U13" s="53"/>
@@ -5206,7 +5271,7 @@
       <c r="X13" s="53"/>
       <c r="Y13" s="53"/>
       <c r="Z13" s="53" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AA13" s="53"/>
       <c r="AB13" s="53"/>
@@ -5215,11 +5280,11 @@
       <c r="AE13" s="53"/>
       <c r="AF13" s="53"/>
       <c r="AG13" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH13" s="54"/>
       <c r="AI13" s="55" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="AJ13" s="55"/>
       <c r="AK13" s="55"/>
@@ -5242,7 +5307,7 @@
     </row>
     <row r="15" spans="2:81">
       <c r="C15" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:81">
@@ -5311,7 +5376,7 @@
     </row>
     <row r="17" spans="3:50">
       <c r="C17" s="53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
@@ -5407,7 +5472,7 @@
     <mergeCell ref="L9:R9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG17:AH17 AG9:AH13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
@@ -5485,7 +5550,7 @@
     </row>
     <row r="7" spans="2:81">
       <c r="C7" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="BX7" s="12" t="s">
         <v>34</v>
@@ -5572,7 +5637,7 @@
       <c r="D9" s="45"/>
       <c r="E9" s="42"/>
       <c r="F9" s="61" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
@@ -5581,7 +5646,7 @@
       <c r="K9" s="57"/>
       <c r="L9" s="58"/>
       <c r="M9" s="59" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="N9" s="59"/>
       <c r="O9" s="59"/>
@@ -5590,7 +5655,7 @@
       <c r="R9" s="59"/>
       <c r="S9" s="59"/>
       <c r="T9" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U9" s="59"/>
       <c r="V9" s="59"/>
@@ -5599,7 +5664,7 @@
       <c r="Y9" s="59"/>
       <c r="Z9" s="59"/>
       <c r="AA9" s="59" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AB9" s="59"/>
       <c r="AC9" s="59"/>
@@ -5608,7 +5673,7 @@
       <c r="AF9" s="59"/>
       <c r="AG9" s="59"/>
       <c r="AH9" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI9" s="60"/>
       <c r="AJ9" s="56"/>
@@ -5641,7 +5706,7 @@
       </c>
       <c r="E10" s="42"/>
       <c r="F10" s="57" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G10" s="57"/>
       <c r="H10" s="57"/>
@@ -5650,7 +5715,7 @@
       <c r="K10" s="57"/>
       <c r="L10" s="58"/>
       <c r="M10" s="59" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="N10" s="59"/>
       <c r="O10" s="59"/>
@@ -5659,7 +5724,7 @@
       <c r="R10" s="59"/>
       <c r="S10" s="59"/>
       <c r="T10" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U10" s="59"/>
       <c r="V10" s="59"/>
@@ -5668,7 +5733,7 @@
       <c r="Y10" s="59"/>
       <c r="Z10" s="59"/>
       <c r="AA10" s="59" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB10" s="59"/>
       <c r="AC10" s="59"/>
@@ -5677,7 +5742,7 @@
       <c r="AF10" s="59"/>
       <c r="AG10" s="59"/>
       <c r="AH10" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI10" s="60"/>
       <c r="AJ10" s="56"/>
@@ -5697,10 +5762,10 @@
       <c r="AX10" s="56"/>
       <c r="AY10" s="56"/>
       <c r="BX10" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CA10" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="2:81">
@@ -5710,7 +5775,7 @@
       </c>
       <c r="E11" s="42"/>
       <c r="F11" s="61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="57"/>
       <c r="H11" s="57"/>
@@ -5719,7 +5784,7 @@
       <c r="K11" s="57"/>
       <c r="L11" s="58"/>
       <c r="M11" s="59" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N11" s="59"/>
       <c r="O11" s="59"/>
@@ -5728,7 +5793,7 @@
       <c r="R11" s="59"/>
       <c r="S11" s="59"/>
       <c r="T11" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U11" s="59"/>
       <c r="V11" s="59"/>
@@ -5737,7 +5802,7 @@
       <c r="Y11" s="59"/>
       <c r="Z11" s="59"/>
       <c r="AA11" s="59" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB11" s="59"/>
       <c r="AC11" s="59"/>
@@ -5746,7 +5811,7 @@
       <c r="AF11" s="59"/>
       <c r="AG11" s="59"/>
       <c r="AH11" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI11" s="60"/>
       <c r="AJ11" s="56"/>
@@ -5766,7 +5831,7 @@
       <c r="AX11" s="56"/>
       <c r="AY11" s="56"/>
       <c r="BX11" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CA11" s="12" t="s">
         <v>33</v>
@@ -5779,7 +5844,7 @@
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="61" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G12" s="57"/>
       <c r="H12" s="57"/>
@@ -5788,7 +5853,7 @@
       <c r="K12" s="57"/>
       <c r="L12" s="58"/>
       <c r="M12" s="59" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N12" s="59"/>
       <c r="O12" s="59"/>
@@ -5797,7 +5862,7 @@
       <c r="R12" s="59"/>
       <c r="S12" s="59"/>
       <c r="T12" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U12" s="59"/>
       <c r="V12" s="59"/>
@@ -5806,7 +5871,7 @@
       <c r="Y12" s="59"/>
       <c r="Z12" s="59"/>
       <c r="AA12" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB12" s="59"/>
       <c r="AC12" s="59"/>
@@ -5815,7 +5880,7 @@
       <c r="AF12" s="59"/>
       <c r="AG12" s="59"/>
       <c r="AH12" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI12" s="60"/>
       <c r="AJ12" s="56"/>
@@ -5845,7 +5910,7 @@
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="61" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G13" s="57"/>
       <c r="H13" s="57"/>
@@ -5854,7 +5919,7 @@
       <c r="K13" s="57"/>
       <c r="L13" s="58"/>
       <c r="M13" s="59" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="N13" s="59"/>
       <c r="O13" s="59"/>
@@ -5863,7 +5928,7 @@
       <c r="R13" s="59"/>
       <c r="S13" s="59"/>
       <c r="T13" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U13" s="59"/>
       <c r="V13" s="59"/>
@@ -5872,7 +5937,7 @@
       <c r="Y13" s="59"/>
       <c r="Z13" s="59"/>
       <c r="AA13" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB13" s="59"/>
       <c r="AC13" s="59"/>
@@ -5881,7 +5946,7 @@
       <c r="AF13" s="59"/>
       <c r="AG13" s="59"/>
       <c r="AH13" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI13" s="60"/>
       <c r="AJ13" s="56"/>
@@ -5911,7 +5976,7 @@
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="61" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G14" s="57"/>
       <c r="H14" s="57"/>
@@ -5920,7 +5985,7 @@
       <c r="K14" s="57"/>
       <c r="L14" s="58"/>
       <c r="M14" s="59" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N14" s="59"/>
       <c r="O14" s="59"/>
@@ -5929,7 +5994,7 @@
       <c r="R14" s="59"/>
       <c r="S14" s="59"/>
       <c r="T14" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U14" s="59"/>
       <c r="V14" s="59"/>
@@ -5938,7 +6003,7 @@
       <c r="Y14" s="59"/>
       <c r="Z14" s="59"/>
       <c r="AA14" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
@@ -5947,7 +6012,7 @@
       <c r="AF14" s="59"/>
       <c r="AG14" s="59"/>
       <c r="AH14" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI14" s="60"/>
       <c r="AJ14" s="56"/>
@@ -5974,7 +6039,7 @@
       </c>
       <c r="E15" s="42"/>
       <c r="F15" s="61" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
@@ -5983,7 +6048,7 @@
       <c r="K15" s="57"/>
       <c r="L15" s="58"/>
       <c r="M15" s="59" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="N15" s="59"/>
       <c r="O15" s="59"/>
@@ -5992,7 +6057,7 @@
       <c r="R15" s="59"/>
       <c r="S15" s="59"/>
       <c r="T15" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U15" s="59"/>
       <c r="V15" s="59"/>
@@ -6001,7 +6066,7 @@
       <c r="Y15" s="59"/>
       <c r="Z15" s="59"/>
       <c r="AA15" s="59" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
@@ -6010,7 +6075,7 @@
       <c r="AF15" s="59"/>
       <c r="AG15" s="59"/>
       <c r="AH15" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI15" s="60"/>
       <c r="AJ15" s="56"/>
@@ -6037,7 +6102,7 @@
       </c>
       <c r="E16" s="42"/>
       <c r="F16" s="61" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G16" s="57"/>
       <c r="H16" s="57"/>
@@ -6046,7 +6111,7 @@
       <c r="K16" s="57"/>
       <c r="L16" s="58"/>
       <c r="M16" s="59" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N16" s="59"/>
       <c r="O16" s="59"/>
@@ -6055,7 +6120,7 @@
       <c r="R16" s="59"/>
       <c r="S16" s="59"/>
       <c r="T16" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U16" s="59"/>
       <c r="V16" s="59"/>
@@ -6064,7 +6129,7 @@
       <c r="Y16" s="59"/>
       <c r="Z16" s="59"/>
       <c r="AA16" s="59" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB16" s="59"/>
       <c r="AC16" s="59"/>
@@ -6073,7 +6138,7 @@
       <c r="AF16" s="59"/>
       <c r="AG16" s="59"/>
       <c r="AH16" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI16" s="60"/>
       <c r="AJ16" s="56"/>
@@ -6100,7 +6165,7 @@
       </c>
       <c r="E17" s="33"/>
       <c r="F17" s="61" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G17" s="57"/>
       <c r="H17" s="57"/>
@@ -6109,7 +6174,7 @@
       <c r="K17" s="57"/>
       <c r="L17" s="58"/>
       <c r="M17" s="59" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N17" s="59"/>
       <c r="O17" s="59"/>
@@ -6118,7 +6183,7 @@
       <c r="R17" s="59"/>
       <c r="S17" s="59"/>
       <c r="T17" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U17" s="59"/>
       <c r="V17" s="59"/>
@@ -6127,7 +6192,7 @@
       <c r="Y17" s="59"/>
       <c r="Z17" s="59"/>
       <c r="AA17" s="59" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB17" s="59"/>
       <c r="AC17" s="59"/>
@@ -6136,7 +6201,7 @@
       <c r="AF17" s="59"/>
       <c r="AG17" s="59"/>
       <c r="AH17" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI17" s="60"/>
       <c r="AJ17" s="56"/>
@@ -6163,7 +6228,7 @@
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G18" s="57"/>
       <c r="H18" s="57"/>
@@ -6172,7 +6237,7 @@
       <c r="K18" s="57"/>
       <c r="L18" s="58"/>
       <c r="M18" s="59" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N18" s="59"/>
       <c r="O18" s="59"/>
@@ -6181,7 +6246,7 @@
       <c r="R18" s="59"/>
       <c r="S18" s="59"/>
       <c r="T18" s="59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U18" s="59"/>
       <c r="V18" s="59"/>
@@ -6190,7 +6255,7 @@
       <c r="Y18" s="59"/>
       <c r="Z18" s="59"/>
       <c r="AA18" s="59" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AB18" s="59"/>
       <c r="AC18" s="59"/>
@@ -6199,7 +6264,7 @@
       <c r="AF18" s="59"/>
       <c r="AG18" s="59"/>
       <c r="AH18" s="60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI18" s="60"/>
       <c r="AJ18" s="56"/>
@@ -6226,7 +6291,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G19" s="57"/>
       <c r="H19" s="57"/>
@@ -6235,7 +6300,7 @@
       <c r="K19" s="57"/>
       <c r="L19" s="58"/>
       <c r="M19" s="59" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N19" s="59"/>
       <c r="O19" s="59"/>
@@ -6244,7 +6309,7 @@
       <c r="R19" s="59"/>
       <c r="S19" s="59"/>
       <c r="T19" s="59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U19" s="59"/>
       <c r="V19" s="59"/>
@@ -6253,7 +6318,7 @@
       <c r="Y19" s="59"/>
       <c r="Z19" s="59"/>
       <c r="AA19" s="59" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AB19" s="59"/>
       <c r="AC19" s="59"/>
@@ -6262,7 +6327,7 @@
       <c r="AF19" s="59"/>
       <c r="AG19" s="59"/>
       <c r="AH19" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI19" s="60"/>
       <c r="AJ19" s="56"/>
@@ -6289,7 +6354,7 @@
         <v>2</v>
       </c>
       <c r="F20" s="57" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G20" s="57"/>
       <c r="H20" s="57"/>
@@ -6298,7 +6363,7 @@
       <c r="K20" s="57"/>
       <c r="L20" s="58"/>
       <c r="M20" s="59" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N20" s="59"/>
       <c r="O20" s="59"/>
@@ -6307,7 +6372,7 @@
       <c r="R20" s="59"/>
       <c r="S20" s="59"/>
       <c r="T20" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U20" s="59"/>
       <c r="V20" s="59"/>
@@ -6316,7 +6381,7 @@
       <c r="Y20" s="59"/>
       <c r="Z20" s="59"/>
       <c r="AA20" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB20" s="59"/>
       <c r="AC20" s="59"/>
@@ -6325,7 +6390,7 @@
       <c r="AF20" s="59"/>
       <c r="AG20" s="59"/>
       <c r="AH20" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI20" s="60"/>
       <c r="AJ20" s="56"/>
@@ -6352,7 +6417,7 @@
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="61" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G21" s="57"/>
       <c r="H21" s="57"/>
@@ -6361,7 +6426,7 @@
       <c r="K21" s="57"/>
       <c r="L21" s="58"/>
       <c r="M21" s="59" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N21" s="59"/>
       <c r="O21" s="59"/>
@@ -6370,7 +6435,7 @@
       <c r="R21" s="59"/>
       <c r="S21" s="59"/>
       <c r="T21" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U21" s="59"/>
       <c r="V21" s="59"/>
@@ -6388,11 +6453,11 @@
       <c r="AF21" s="59"/>
       <c r="AG21" s="59"/>
       <c r="AH21" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI21" s="60"/>
       <c r="AJ21" s="56" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AK21" s="56"/>
       <c r="AL21" s="56"/>
@@ -6417,7 +6482,7 @@
       </c>
       <c r="E22" s="42"/>
       <c r="F22" s="61" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G22" s="57"/>
       <c r="H22" s="57"/>
@@ -6426,7 +6491,7 @@
       <c r="K22" s="57"/>
       <c r="L22" s="58"/>
       <c r="M22" s="59" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N22" s="59"/>
       <c r="O22" s="59"/>
@@ -6435,7 +6500,7 @@
       <c r="R22" s="59"/>
       <c r="S22" s="59"/>
       <c r="T22" s="59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U22" s="59"/>
       <c r="V22" s="59"/>
@@ -6444,7 +6509,7 @@
       <c r="Y22" s="59"/>
       <c r="Z22" s="59"/>
       <c r="AA22" s="59" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AB22" s="59"/>
       <c r="AC22" s="59"/>
@@ -6453,11 +6518,11 @@
       <c r="AF22" s="59"/>
       <c r="AG22" s="59"/>
       <c r="AH22" s="60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AI22" s="60"/>
       <c r="AJ22" s="56" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AK22" s="56"/>
       <c r="AL22" s="56"/>

--- a/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref001_トークテーマ一覧取得.xlsx
+++ b/20.開発/60.API/20.API仕様書/【eternal】API仕様書_Ref001_トークテーマ一覧取得.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064E4F20-5ED2-49F5-85F7-75845E0D96AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2EB24E-6351-47FD-B8A5-8F36D48F06FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,6 +44,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -686,33 +691,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">asc:昇順
-desc:降順
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>※デフォルトは昇順</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ショウジュン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウジュン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ショウジュン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>カテゴリID
 カテゴリIDでレスポンスを絞り込む</t>
     <rPh sb="20" eb="21">
@@ -784,6 +762,17 @@
     </rPh>
     <rPh sb="5" eb="8">
       <t>サイダイチ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>asc:昇順
+desc:降順</t>
+    <rPh sb="4" eb="6">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウジュン</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -798,7 +787,7 @@
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -887,13 +876,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="メイリオ"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1217,16 +1199,22 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1236,12 +1224,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4304,7 +4286,7 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4377,10 +4359,10 @@
     </row>
     <row r="7" spans="2:5" ht="37.5">
       <c r="B7" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="D7" s="9">
         <v>43507</v>
@@ -4500,7 +4482,7 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4801,7 +4783,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4866,7 +4848,7 @@
         <v>43507</v>
       </c>
       <c r="CC3" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="2:81" ht="18" customHeight="1"/>
@@ -4957,69 +4939,69 @@
       </c>
     </row>
     <row r="9" spans="2:81">
-      <c r="C9" s="53">
+      <c r="C9" s="55">
         <f>ROW()-ROW($C$8)</f>
         <v>1</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53" t="s">
+      <c r="D9" s="55"/>
+      <c r="E9" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53" t="s">
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53" t="s">
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="54" t="s">
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="55"/>
+      <c r="AF9" s="55"/>
+      <c r="AG9" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ9" s="55"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="55"/>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AO9" s="55"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="55"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="55"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="55"/>
-      <c r="AW9" s="55"/>
-      <c r="AX9" s="55"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="54"/>
+      <c r="AX9" s="54"/>
       <c r="BX9" s="12" t="s">
         <v>32</v>
       </c>
@@ -5028,69 +5010,69 @@
       </c>
     </row>
     <row r="10" spans="2:81" ht="37.5" customHeight="1">
-      <c r="C10" s="53">
+      <c r="C10" s="55">
         <f>ROW()-ROW($C$8)</f>
         <v>2</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53" t="s">
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="53"/>
-      <c r="Z10" s="53" t="s">
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="AA10" s="53"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="53"/>
-      <c r="AD10" s="53"/>
-      <c r="AE10" s="53"/>
-      <c r="AF10" s="53"/>
-      <c r="AG10" s="54" t="s">
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="55"/>
-      <c r="AP10" s="55"/>
-      <c r="AQ10" s="55"/>
-      <c r="AR10" s="55"/>
-      <c r="AS10" s="55"/>
-      <c r="AT10" s="55"/>
-      <c r="AU10" s="55"/>
-      <c r="AV10" s="55"/>
-      <c r="AW10" s="55"/>
-      <c r="AX10" s="55"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="54"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="54"/>
+      <c r="AU10" s="54"/>
+      <c r="AV10" s="54"/>
+      <c r="AW10" s="54"/>
+      <c r="AX10" s="54"/>
       <c r="BX10" s="12" t="s">
         <v>58</v>
       </c>
@@ -5099,69 +5081,69 @@
       </c>
     </row>
     <row r="11" spans="2:81" ht="37.5" customHeight="1">
-      <c r="C11" s="53">
+      <c r="C11" s="55">
         <f>ROW()-ROW($C$8)</f>
         <v>3</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53" t="s">
+      <c r="D11" s="55"/>
+      <c r="E11" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53" t="s">
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53" t="s">
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53" t="s">
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="AA11" s="53"/>
-      <c r="AB11" s="53"/>
-      <c r="AC11" s="53"/>
-      <c r="AD11" s="53"/>
-      <c r="AE11" s="53"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="54" t="s">
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="55"/>
+      <c r="AF11" s="55"/>
+      <c r="AG11" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="55"/>
-      <c r="AN11" s="55"/>
-      <c r="AO11" s="55"/>
-      <c r="AP11" s="55"/>
-      <c r="AQ11" s="55"/>
-      <c r="AR11" s="55"/>
-      <c r="AS11" s="55"/>
-      <c r="AT11" s="55"/>
-      <c r="AU11" s="55"/>
-      <c r="AV11" s="55"/>
-      <c r="AW11" s="55"/>
-      <c r="AX11" s="55"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="54"/>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="54"/>
+      <c r="AR11" s="54"/>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="54"/>
+      <c r="AU11" s="54"/>
+      <c r="AV11" s="54"/>
+      <c r="AW11" s="54"/>
+      <c r="AX11" s="54"/>
       <c r="BX11" s="12" t="s">
         <v>59</v>
       </c>
@@ -5170,137 +5152,137 @@
       </c>
     </row>
     <row r="12" spans="2:81" ht="95.25" customHeight="1">
-      <c r="C12" s="53">
+      <c r="C12" s="55">
         <f>ROW()-ROW($C$8)</f>
         <v>4</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53" t="s">
+      <c r="D12" s="55"/>
+      <c r="E12" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53" t="s">
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53" t="s">
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53" t="s">
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="54" t="s">
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="AH12" s="54"/>
-      <c r="AI12" s="55" t="s">
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AS12" s="55"/>
-      <c r="AT12" s="55"/>
-      <c r="AU12" s="55"/>
-      <c r="AV12" s="55"/>
-      <c r="AW12" s="55"/>
-      <c r="AX12" s="55"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="54"/>
+      <c r="AP12" s="54"/>
+      <c r="AQ12" s="54"/>
+      <c r="AR12" s="54"/>
+      <c r="AS12" s="54"/>
+      <c r="AT12" s="54"/>
+      <c r="AU12" s="54"/>
+      <c r="AV12" s="54"/>
+      <c r="AW12" s="54"/>
+      <c r="AX12" s="54"/>
       <c r="CA12" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:81" ht="56.25" customHeight="1">
-      <c r="C13" s="53">
+    <row r="13" spans="2:81" ht="39.75" customHeight="1">
+      <c r="C13" s="55">
         <f>ROW()-ROW($C$8)</f>
         <v>5</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53" t="s">
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
-      <c r="Z13" s="53" t="s">
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="AA13" s="53"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="AJ13" s="55"/>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="55"/>
-      <c r="AO13" s="55"/>
-      <c r="AP13" s="55"/>
-      <c r="AQ13" s="55"/>
-      <c r="AR13" s="55"/>
-      <c r="AS13" s="55"/>
-      <c r="AT13" s="55"/>
-      <c r="AU13" s="55"/>
-      <c r="AV13" s="55"/>
-      <c r="AW13" s="55"/>
-      <c r="AX13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="54"/>
+      <c r="AW13" s="54"/>
+      <c r="AX13" s="54"/>
       <c r="CA13" s="12" t="s">
         <v>36</v>
       </c>
@@ -5375,66 +5357,78 @@
       <c r="AX16" s="23"/>
     </row>
     <row r="17" spans="3:50">
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="55"/>
-      <c r="AL17" s="55"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="55"/>
-      <c r="AP17" s="55"/>
-      <c r="AQ17" s="55"/>
-      <c r="AR17" s="55"/>
-      <c r="AS17" s="55"/>
-      <c r="AT17" s="55"/>
-      <c r="AU17" s="55"/>
-      <c r="AV17" s="55"/>
-      <c r="AW17" s="55"/>
-      <c r="AX17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="55"/>
+      <c r="AF17" s="55"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AX10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="S10:Y10"/>
-    <mergeCell ref="Z10:AF10"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="Z9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AX9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AX13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="S12:Y12"/>
+    <mergeCell ref="Z12:AF12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:K13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="S13:Y13"/>
+    <mergeCell ref="Z13:AF13"/>
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="AI11:AX11"/>
     <mergeCell ref="C17:D17"/>
@@ -5451,34 +5445,22 @@
     <mergeCell ref="Z11:AF11"/>
     <mergeCell ref="AG12:AH12"/>
     <mergeCell ref="AI12:AX12"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AX13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="S12:Y12"/>
-    <mergeCell ref="Z12:AF12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="S13:Y13"/>
-    <mergeCell ref="Z13:AF13"/>
-    <mergeCell ref="S9:Y9"/>
-    <mergeCell ref="Z9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AX9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AX10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="S10:Y10"/>
+    <mergeCell ref="Z10:AF10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG17:AH17 AG9:AH13" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5636,62 +5618,62 @@
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="42"/>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59" t="s">
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59" t="s">
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="U9" s="59"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59" t="s">
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="61"/>
+      <c r="AA9" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="59"/>
-      <c r="AG9" s="59"/>
-      <c r="AH9" s="60" t="s">
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+      <c r="AF9" s="61"/>
+      <c r="AG9" s="61"/>
+      <c r="AH9" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="56"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="56"/>
-      <c r="AQ9" s="56"/>
-      <c r="AR9" s="56"/>
-      <c r="AS9" s="56"/>
-      <c r="AT9" s="56"/>
-      <c r="AU9" s="56"/>
-      <c r="AV9" s="56"/>
-      <c r="AW9" s="56"/>
-      <c r="AX9" s="56"/>
-      <c r="AY9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="57"/>
       <c r="BX9" s="12" t="s">
         <v>32</v>
       </c>
@@ -5705,62 +5687,62 @@
         <v>1</v>
       </c>
       <c r="E10" s="42"/>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59" t="s">
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59" t="s">
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59" t="s">
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="60" t="s">
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="61"/>
+      <c r="AG10" s="61"/>
+      <c r="AH10" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="56"/>
-      <c r="AS10" s="56"/>
-      <c r="AT10" s="56"/>
-      <c r="AU10" s="56"/>
-      <c r="AV10" s="56"/>
-      <c r="AW10" s="56"/>
-      <c r="AX10" s="56"/>
-      <c r="AY10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="57"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="57"/>
+      <c r="AQ10" s="57"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="57"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="57"/>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="57"/>
+      <c r="AX10" s="57"/>
+      <c r="AY10" s="57"/>
       <c r="BX10" s="12" t="s">
         <v>58</v>
       </c>
@@ -5774,62 +5756,62 @@
         <v>2</v>
       </c>
       <c r="E11" s="42"/>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59" t="s">
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59" t="s">
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
-      <c r="Z11" s="59"/>
-      <c r="AA11" s="59" t="s">
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AB11" s="59"/>
-      <c r="AC11" s="59"/>
-      <c r="AD11" s="59"/>
-      <c r="AE11" s="59"/>
-      <c r="AF11" s="59"/>
-      <c r="AG11" s="59"/>
-      <c r="AH11" s="60" t="s">
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI11" s="60"/>
-      <c r="AJ11" s="56"/>
-      <c r="AK11" s="56"/>
-      <c r="AL11" s="56"/>
-      <c r="AM11" s="56"/>
-      <c r="AN11" s="56"/>
-      <c r="AO11" s="56"/>
-      <c r="AP11" s="56"/>
-      <c r="AQ11" s="56"/>
-      <c r="AR11" s="56"/>
-      <c r="AS11" s="56"/>
-      <c r="AT11" s="56"/>
-      <c r="AU11" s="56"/>
-      <c r="AV11" s="56"/>
-      <c r="AW11" s="56"/>
-      <c r="AX11" s="56"/>
-      <c r="AY11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="57"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="57"/>
+      <c r="AP11" s="57"/>
+      <c r="AQ11" s="57"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="57"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="57"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="57"/>
       <c r="BX11" s="12" t="s">
         <v>59</v>
       </c>
@@ -5843,62 +5825,62 @@
         <v>3</v>
       </c>
       <c r="E12" s="42"/>
-      <c r="F12" s="61" t="s">
+      <c r="F12" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59" t="s">
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="59" t="s">
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U12" s="59"/>
-      <c r="V12" s="59"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="59"/>
-      <c r="Y12" s="59"/>
-      <c r="Z12" s="59"/>
-      <c r="AA12" s="59" t="s">
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="AB12" s="59"/>
-      <c r="AC12" s="59"/>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="60" t="s">
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="61"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI12" s="60"/>
-      <c r="AJ12" s="56"/>
-      <c r="AK12" s="56"/>
-      <c r="AL12" s="56"/>
-      <c r="AM12" s="56"/>
-      <c r="AN12" s="56"/>
-      <c r="AO12" s="56"/>
-      <c r="AP12" s="56"/>
-      <c r="AQ12" s="56"/>
-      <c r="AR12" s="56"/>
-      <c r="AS12" s="56"/>
-      <c r="AT12" s="56"/>
-      <c r="AU12" s="56"/>
-      <c r="AV12" s="56"/>
-      <c r="AW12" s="56"/>
-      <c r="AX12" s="56"/>
-      <c r="AY12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="57"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="57"/>
+      <c r="AX12" s="57"/>
+      <c r="AY12" s="57"/>
       <c r="CA12" s="12" t="s">
         <v>35</v>
       </c>
@@ -5909,62 +5891,62 @@
         <v>4</v>
       </c>
       <c r="E13" s="42"/>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="59" t="s">
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="59" t="s">
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59" t="s">
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="60" t="s">
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="61"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="56"/>
-      <c r="AK13" s="56"/>
-      <c r="AL13" s="56"/>
-      <c r="AM13" s="56"/>
-      <c r="AN13" s="56"/>
-      <c r="AO13" s="56"/>
-      <c r="AP13" s="56"/>
-      <c r="AQ13" s="56"/>
-      <c r="AR13" s="56"/>
-      <c r="AS13" s="56"/>
-      <c r="AT13" s="56"/>
-      <c r="AU13" s="56"/>
-      <c r="AV13" s="56"/>
-      <c r="AW13" s="56"/>
-      <c r="AX13" s="56"/>
-      <c r="AY13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="57"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="57"/>
+      <c r="AX13" s="57"/>
+      <c r="AY13" s="57"/>
       <c r="CA13" s="12" t="s">
         <v>36</v>
       </c>
@@ -5975,62 +5957,62 @@
         <v>5</v>
       </c>
       <c r="E14" s="42"/>
-      <c r="F14" s="61" t="s">
+      <c r="F14" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="59" t="s">
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59" t="s">
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-      <c r="Y14" s="59"/>
-      <c r="Z14" s="59"/>
-      <c r="AA14" s="59" t="s">
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="60" t="s">
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="AI14" s="60"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
-      <c r="AL14" s="56"/>
-      <c r="AM14" s="56"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="56"/>
-      <c r="AQ14" s="56"/>
-      <c r="AR14" s="56"/>
-      <c r="AS14" s="56"/>
-      <c r="AT14" s="56"/>
-      <c r="AU14" s="56"/>
-      <c r="AV14" s="56"/>
-      <c r="AW14" s="56"/>
-      <c r="AX14" s="56"/>
-      <c r="AY14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="57"/>
+      <c r="AY14" s="57"/>
     </row>
     <row r="15" spans="2:81">
       <c r="C15" s="36"/>
@@ -6038,62 +6020,62 @@
         <v>6</v>
       </c>
       <c r="E15" s="42"/>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59" t="s">
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="N15" s="59"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59" t="s">
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="59"/>
-      <c r="Y15" s="59"/>
-      <c r="Z15" s="59"/>
-      <c r="AA15" s="59" t="s">
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AB15" s="59"/>
-      <c r="AC15" s="59"/>
-      <c r="AD15" s="59"/>
-      <c r="AE15" s="59"/>
-      <c r="AF15" s="59"/>
-      <c r="AG15" s="59"/>
-      <c r="AH15" s="60" t="s">
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="56"/>
-      <c r="AK15" s="56"/>
-      <c r="AL15" s="56"/>
-      <c r="AM15" s="56"/>
-      <c r="AN15" s="56"/>
-      <c r="AO15" s="56"/>
-      <c r="AP15" s="56"/>
-      <c r="AQ15" s="56"/>
-      <c r="AR15" s="56"/>
-      <c r="AS15" s="56"/>
-      <c r="AT15" s="56"/>
-      <c r="AU15" s="56"/>
-      <c r="AV15" s="56"/>
-      <c r="AW15" s="56"/>
-      <c r="AX15" s="56"/>
-      <c r="AY15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="57"/>
+      <c r="AY15" s="57"/>
     </row>
     <row r="16" spans="2:81">
       <c r="C16" s="36"/>
@@ -6101,62 +6083,62 @@
         <v>7</v>
       </c>
       <c r="E16" s="42"/>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59" t="s">
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59" t="s">
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AB16" s="59"/>
-      <c r="AC16" s="59"/>
-      <c r="AD16" s="59"/>
-      <c r="AE16" s="59"/>
-      <c r="AF16" s="59"/>
-      <c r="AG16" s="59"/>
-      <c r="AH16" s="60" t="s">
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="56"/>
-      <c r="AL16" s="56"/>
-      <c r="AM16" s="56"/>
-      <c r="AN16" s="56"/>
-      <c r="AO16" s="56"/>
-      <c r="AP16" s="56"/>
-      <c r="AQ16" s="56"/>
-      <c r="AR16" s="56"/>
-      <c r="AS16" s="56"/>
-      <c r="AT16" s="56"/>
-      <c r="AU16" s="56"/>
-      <c r="AV16" s="56"/>
-      <c r="AW16" s="56"/>
-      <c r="AX16" s="56"/>
-      <c r="AY16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="57"/>
+      <c r="AV16" s="57"/>
+      <c r="AW16" s="57"/>
+      <c r="AX16" s="57"/>
+      <c r="AY16" s="57"/>
     </row>
     <row r="17" spans="3:51">
       <c r="C17" s="36"/>
@@ -6164,62 +6146,62 @@
         <v>8</v>
       </c>
       <c r="E17" s="33"/>
-      <c r="F17" s="61" t="s">
+      <c r="F17" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59" t="s">
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59" t="s">
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59" t="s">
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
+      <c r="AA17" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="60" t="s">
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="61"/>
+      <c r="AG17" s="61"/>
+      <c r="AH17" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI17" s="60"/>
-      <c r="AJ17" s="56"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="56"/>
-      <c r="AM17" s="56"/>
-      <c r="AN17" s="56"/>
-      <c r="AO17" s="56"/>
-      <c r="AP17" s="56"/>
-      <c r="AQ17" s="56"/>
-      <c r="AR17" s="56"/>
-      <c r="AS17" s="56"/>
-      <c r="AT17" s="56"/>
-      <c r="AU17" s="56"/>
-      <c r="AV17" s="56"/>
-      <c r="AW17" s="56"/>
-      <c r="AX17" s="56"/>
-      <c r="AY17" s="56"/>
+      <c r="AI17" s="56"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="57"/>
+      <c r="AX17" s="57"/>
+      <c r="AY17" s="57"/>
     </row>
     <row r="18" spans="3:51">
       <c r="C18" s="44"/>
@@ -6227,62 +6209,62 @@
         <v>9</v>
       </c>
       <c r="E18" s="39"/>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="59" t="s">
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59" t="s">
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59" t="s">
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="60" t="s">
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="AI18" s="60"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="56"/>
-      <c r="AQ18" s="56"/>
-      <c r="AR18" s="56"/>
-      <c r="AS18" s="56"/>
-      <c r="AT18" s="56"/>
-      <c r="AU18" s="56"/>
-      <c r="AV18" s="56"/>
-      <c r="AW18" s="56"/>
-      <c r="AX18" s="56"/>
-      <c r="AY18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="57"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="57"/>
+      <c r="AT18" s="57"/>
+      <c r="AU18" s="57"/>
+      <c r="AV18" s="57"/>
+      <c r="AW18" s="57"/>
+      <c r="AX18" s="57"/>
+      <c r="AY18" s="57"/>
     </row>
     <row r="19" spans="3:51">
       <c r="C19" s="34"/>
@@ -6290,62 +6272,62 @@
       <c r="E19" s="37">
         <v>1</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59" t="s">
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59" t="s">
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59" t="s">
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="60" t="s">
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="61"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="61"/>
+      <c r="AG19" s="61"/>
+      <c r="AH19" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="56"/>
-      <c r="AM19" s="56"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="56"/>
-      <c r="AT19" s="56"/>
-      <c r="AU19" s="56"/>
-      <c r="AV19" s="56"/>
-      <c r="AW19" s="56"/>
-      <c r="AX19" s="56"/>
-      <c r="AY19" s="56"/>
+      <c r="AI19" s="56"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
+      <c r="AU19" s="57"/>
+      <c r="AV19" s="57"/>
+      <c r="AW19" s="57"/>
+      <c r="AX19" s="57"/>
+      <c r="AY19" s="57"/>
     </row>
     <row r="20" spans="3:51">
       <c r="C20" s="34"/>
@@ -6353,62 +6335,62 @@
       <c r="E20" s="37">
         <v>2</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59" t="s">
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59" t="s">
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59" t="s">
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="60" t="s">
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="61"/>
+      <c r="AG20" s="61"/>
+      <c r="AH20" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="56"/>
-      <c r="AK20" s="56"/>
-      <c r="AL20" s="56"/>
-      <c r="AM20" s="56"/>
-      <c r="AN20" s="56"/>
-      <c r="AO20" s="56"/>
-      <c r="AP20" s="56"/>
-      <c r="AQ20" s="56"/>
-      <c r="AR20" s="56"/>
-      <c r="AS20" s="56"/>
-      <c r="AT20" s="56"/>
-      <c r="AU20" s="56"/>
-      <c r="AV20" s="56"/>
-      <c r="AW20" s="56"/>
-      <c r="AX20" s="56"/>
-      <c r="AY20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="57"/>
+      <c r="AV20" s="57"/>
+      <c r="AW20" s="57"/>
+      <c r="AX20" s="57"/>
+      <c r="AY20" s="57"/>
     </row>
     <row r="21" spans="3:51">
       <c r="C21" s="36"/>
@@ -6416,64 +6398,64 @@
         <v>10</v>
       </c>
       <c r="E21" s="31"/>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59" t="s">
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59" t="s">
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59" t="s">
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="60" t="s">
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI21" s="60"/>
-      <c r="AJ21" s="56" t="s">
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="AK21" s="56"/>
-      <c r="AL21" s="56"/>
-      <c r="AM21" s="56"/>
-      <c r="AN21" s="56"/>
-      <c r="AO21" s="56"/>
-      <c r="AP21" s="56"/>
-      <c r="AQ21" s="56"/>
-      <c r="AR21" s="56"/>
-      <c r="AS21" s="56"/>
-      <c r="AT21" s="56"/>
-      <c r="AU21" s="56"/>
-      <c r="AV21" s="56"/>
-      <c r="AW21" s="56"/>
-      <c r="AX21" s="56"/>
-      <c r="AY21" s="56"/>
+      <c r="AK21" s="57"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="57"/>
+      <c r="AN21" s="57"/>
+      <c r="AO21" s="57"/>
+      <c r="AP21" s="57"/>
+      <c r="AQ21" s="57"/>
+      <c r="AR21" s="57"/>
+      <c r="AS21" s="57"/>
+      <c r="AT21" s="57"/>
+      <c r="AU21" s="57"/>
+      <c r="AV21" s="57"/>
+      <c r="AW21" s="57"/>
+      <c r="AX21" s="57"/>
+      <c r="AY21" s="57"/>
     </row>
     <row r="22" spans="3:51">
       <c r="C22" s="15"/>
@@ -6481,73 +6463,135 @@
         <v>11</v>
       </c>
       <c r="E22" s="42"/>
-      <c r="F22" s="61" t="s">
+      <c r="F22" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59" t="s">
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59" t="s">
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59" t="s">
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="60" t="s">
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="AI22" s="60"/>
-      <c r="AJ22" s="56" t="s">
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="AK22" s="56"/>
-      <c r="AL22" s="56"/>
-      <c r="AM22" s="56"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="56"/>
-      <c r="AP22" s="56"/>
-      <c r="AQ22" s="56"/>
-      <c r="AR22" s="56"/>
-      <c r="AS22" s="56"/>
-      <c r="AT22" s="56"/>
-      <c r="AU22" s="56"/>
-      <c r="AV22" s="56"/>
-      <c r="AW22" s="56"/>
-      <c r="AX22" s="56"/>
-      <c r="AY22" s="56"/>
+      <c r="AK22" s="57"/>
+      <c r="AL22" s="57"/>
+      <c r="AM22" s="57"/>
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="57"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="57"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="57"/>
+      <c r="AT22" s="57"/>
+      <c r="AU22" s="57"/>
+      <c r="AV22" s="57"/>
+      <c r="AW22" s="57"/>
+      <c r="AX22" s="57"/>
+      <c r="AY22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AY9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:Z9"/>
-    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="AJ10:AY10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AJ11:AY11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="T12:Z12"/>
+    <mergeCell ref="AA12:AG12"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AJ12:AY12"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:Z13"/>
+    <mergeCell ref="AA13:AG13"/>
+    <mergeCell ref="AJ13:AY13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="T14:Z14"/>
+    <mergeCell ref="AA14:AG14"/>
+    <mergeCell ref="AH14:AI14"/>
+    <mergeCell ref="AJ14:AY14"/>
+    <mergeCell ref="AH13:AI13"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="T15:Z15"/>
+    <mergeCell ref="AA15:AG15"/>
+    <mergeCell ref="AJ15:AY15"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="T16:Z16"/>
+    <mergeCell ref="AA16:AG16"/>
+    <mergeCell ref="AH16:AI16"/>
+    <mergeCell ref="AJ16:AY16"/>
+    <mergeCell ref="AH15:AI15"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="T17:Z17"/>
+    <mergeCell ref="AA17:AG17"/>
+    <mergeCell ref="AJ17:AY17"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:Z18"/>
+    <mergeCell ref="AA18:AG18"/>
+    <mergeCell ref="AH18:AI18"/>
+    <mergeCell ref="AJ18:AY18"/>
+    <mergeCell ref="AH17:AI17"/>
+    <mergeCell ref="F21:L21"/>
+    <mergeCell ref="F22:L22"/>
+    <mergeCell ref="F19:L19"/>
+    <mergeCell ref="F20:L20"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="AJ19:AY19"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="AA20:AG20"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AJ20:AY20"/>
+    <mergeCell ref="T19:Z19"/>
+    <mergeCell ref="AA19:AG19"/>
+    <mergeCell ref="AH19:AI19"/>
     <mergeCell ref="AJ21:AY21"/>
     <mergeCell ref="M22:S22"/>
     <mergeCell ref="T22:Z22"/>
@@ -6558,74 +6602,12 @@
     <mergeCell ref="T21:Z21"/>
     <mergeCell ref="AA21:AG21"/>
     <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="AJ19:AY19"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="T20:Z20"/>
-    <mergeCell ref="AA20:AG20"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AJ20:AY20"/>
-    <mergeCell ref="T19:Z19"/>
-    <mergeCell ref="AA19:AG19"/>
-    <mergeCell ref="AH19:AI19"/>
-    <mergeCell ref="F21:L21"/>
-    <mergeCell ref="F22:L22"/>
-    <mergeCell ref="F19:L19"/>
-    <mergeCell ref="F20:L20"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="AJ17:AY17"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:Z18"/>
-    <mergeCell ref="AA18:AG18"/>
-    <mergeCell ref="AH18:AI18"/>
-    <mergeCell ref="AJ18:AY18"/>
-    <mergeCell ref="AH17:AI17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="T17:Z17"/>
-    <mergeCell ref="AA17:AG17"/>
-    <mergeCell ref="AJ15:AY15"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="T16:Z16"/>
-    <mergeCell ref="AA16:AG16"/>
-    <mergeCell ref="AH16:AI16"/>
-    <mergeCell ref="AJ16:AY16"/>
-    <mergeCell ref="AH15:AI15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="T15:Z15"/>
-    <mergeCell ref="AA15:AG15"/>
-    <mergeCell ref="AJ13:AY13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="T14:Z14"/>
-    <mergeCell ref="AA14:AG14"/>
-    <mergeCell ref="AH14:AI14"/>
-    <mergeCell ref="AJ14:AY14"/>
-    <mergeCell ref="AH13:AI13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="T13:Z13"/>
-    <mergeCell ref="AA13:AG13"/>
-    <mergeCell ref="AJ11:AY11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="T12:Z12"/>
-    <mergeCell ref="AA12:AG12"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AJ12:AY12"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AJ10:AY10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AY9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:Z9"/>
+    <mergeCell ref="AA9:AG9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations disablePrompts="1" count="1">
@@ -6634,7 +6616,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>